--- a/source_data_files_ncomms/SourceDataFigure2D.xlsx
+++ b/source_data_files_ncomms/SourceDataFigure2D.xlsx
@@ -20,7 +20,1855 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="888">
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>cellid</t>
+  </si>
+  <si>
+    <t>latency</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>cellid</t>
+  </si>
+  <si>
+    <t>latency</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>cellid</t>
+  </si>
+  <si>
+    <t>latency</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>cellid</t>
+  </si>
+  <si>
+    <t>latency</t>
+  </si>
   <si>
     <t>region</t>
   </si>
@@ -856,7 +2704,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -865,13 +2713,21 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1186,7 +3042,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D277"/>
+  <dimension ref="A1:D423"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
@@ -1202,21 +3058,21 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="0" t="s">
-        <v>136</v>
+        <v>752</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>269</v>
+        <v>885</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>270</v>
+        <v>886</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>271</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.2">
       <c r="A2" s="0" t="s">
-        <v>137</v>
+        <v>753</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
@@ -1230,7 +3086,7 @@
     </row>
     <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" s="0" t="s">
-        <v>137</v>
+        <v>753</v>
       </c>
       <c r="B3" s="0">
         <v>1</v>
@@ -1244,7 +3100,7 @@
     </row>
     <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" s="0" t="s">
-        <v>138</v>
+        <v>754</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -1258,7 +3114,7 @@
     </row>
     <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" s="0" t="s">
-        <v>139</v>
+        <v>755</v>
       </c>
       <c r="B5" s="0">
         <v>1</v>
@@ -1272,7 +3128,7 @@
     </row>
     <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" s="0" t="s">
-        <v>140</v>
+        <v>756</v>
       </c>
       <c r="B6" s="0">
         <v>1</v>
@@ -1286,7 +3142,7 @@
     </row>
     <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" s="0" t="s">
-        <v>141</v>
+        <v>757</v>
       </c>
       <c r="B7" s="0">
         <v>1</v>
@@ -1300,7 +3156,7 @@
     </row>
     <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" s="0" t="s">
-        <v>141</v>
+        <v>757</v>
       </c>
       <c r="B8" s="0">
         <v>1</v>
@@ -1314,7 +3170,7 @@
     </row>
     <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" s="0" t="s">
-        <v>142</v>
+        <v>758</v>
       </c>
       <c r="B9" s="0">
         <v>1</v>
@@ -1328,7 +3184,7 @@
     </row>
     <row r="10" x14ac:dyDescent="0.2">
       <c r="A10" s="0" t="s">
-        <v>143</v>
+        <v>759</v>
       </c>
       <c r="B10" s="0">
         <v>1</v>
@@ -1342,7 +3198,7 @@
     </row>
     <row r="11" x14ac:dyDescent="0.2">
       <c r="A11" s="0" t="s">
-        <v>144</v>
+        <v>760</v>
       </c>
       <c r="B11" s="0">
         <v>1</v>
@@ -1356,7 +3212,7 @@
     </row>
     <row r="12" x14ac:dyDescent="0.2">
       <c r="A12" s="0" t="s">
-        <v>145</v>
+        <v>761</v>
       </c>
       <c r="B12" s="0">
         <v>1</v>
@@ -1370,7 +3226,7 @@
     </row>
     <row r="13" x14ac:dyDescent="0.2">
       <c r="A13" s="0" t="s">
-        <v>145</v>
+        <v>761</v>
       </c>
       <c r="B13" s="0">
         <v>1</v>
@@ -1384,7 +3240,7 @@
     </row>
     <row r="14" x14ac:dyDescent="0.2">
       <c r="A14" s="0" t="s">
-        <v>145</v>
+        <v>761</v>
       </c>
       <c r="B14" s="0">
         <v>1</v>
@@ -1398,7 +3254,7 @@
     </row>
     <row r="15" x14ac:dyDescent="0.2">
       <c r="A15" s="0" t="s">
-        <v>145</v>
+        <v>761</v>
       </c>
       <c r="B15" s="0">
         <v>1</v>
@@ -1412,7 +3268,7 @@
     </row>
     <row r="16" x14ac:dyDescent="0.2">
       <c r="A16" s="0" t="s">
-        <v>146</v>
+        <v>762</v>
       </c>
       <c r="B16" s="0">
         <v>1</v>
@@ -1426,7 +3282,7 @@
     </row>
     <row r="17" x14ac:dyDescent="0.2">
       <c r="A17" s="0" t="s">
-        <v>147</v>
+        <v>763</v>
       </c>
       <c r="B17" s="0">
         <v>1</v>
@@ -1440,7 +3296,7 @@
     </row>
     <row r="18" x14ac:dyDescent="0.2">
       <c r="A18" s="0" t="s">
-        <v>147</v>
+        <v>763</v>
       </c>
       <c r="B18" s="0">
         <v>1</v>
@@ -1454,7 +3310,7 @@
     </row>
     <row r="19" x14ac:dyDescent="0.2">
       <c r="A19" s="0" t="s">
-        <v>148</v>
+        <v>764</v>
       </c>
       <c r="B19" s="0">
         <v>1</v>
@@ -1468,7 +3324,7 @@
     </row>
     <row r="20" x14ac:dyDescent="0.2">
       <c r="A20" s="0" t="s">
-        <v>148</v>
+        <v>764</v>
       </c>
       <c r="B20" s="0">
         <v>1</v>
@@ -1482,7 +3338,7 @@
     </row>
     <row r="21" x14ac:dyDescent="0.2">
       <c r="A21" s="0" t="s">
-        <v>148</v>
+        <v>764</v>
       </c>
       <c r="B21" s="0">
         <v>1</v>
@@ -1496,7 +3352,7 @@
     </row>
     <row r="22" x14ac:dyDescent="0.2">
       <c r="A22" s="0" t="s">
-        <v>149</v>
+        <v>765</v>
       </c>
       <c r="B22" s="0">
         <v>1</v>
@@ -1510,7 +3366,7 @@
     </row>
     <row r="23" x14ac:dyDescent="0.2">
       <c r="A23" s="0" t="s">
-        <v>149</v>
+        <v>765</v>
       </c>
       <c r="B23" s="0">
         <v>1</v>
@@ -1524,7 +3380,7 @@
     </row>
     <row r="24" x14ac:dyDescent="0.2">
       <c r="A24" s="0" t="s">
-        <v>149</v>
+        <v>765</v>
       </c>
       <c r="B24" s="0">
         <v>1</v>
@@ -1538,7 +3394,7 @@
     </row>
     <row r="25" x14ac:dyDescent="0.2">
       <c r="A25" s="0" t="s">
-        <v>150</v>
+        <v>766</v>
       </c>
       <c r="B25" s="0">
         <v>1</v>
@@ -1552,7 +3408,7 @@
     </row>
     <row r="26" x14ac:dyDescent="0.2">
       <c r="A26" s="0" t="s">
-        <v>150</v>
+        <v>766</v>
       </c>
       <c r="B26" s="0">
         <v>1</v>
@@ -1566,7 +3422,7 @@
     </row>
     <row r="27" x14ac:dyDescent="0.2">
       <c r="A27" s="0" t="s">
-        <v>150</v>
+        <v>766</v>
       </c>
       <c r="B27" s="0">
         <v>1</v>
@@ -1580,7 +3436,7 @@
     </row>
     <row r="28" x14ac:dyDescent="0.2">
       <c r="A28" s="0" t="s">
-        <v>150</v>
+        <v>766</v>
       </c>
       <c r="B28" s="0">
         <v>1</v>
@@ -1594,7 +3450,7 @@
     </row>
     <row r="29" x14ac:dyDescent="0.2">
       <c r="A29" s="0" t="s">
-        <v>151</v>
+        <v>767</v>
       </c>
       <c r="B29" s="0">
         <v>1</v>
@@ -1608,7 +3464,7 @@
     </row>
     <row r="30" x14ac:dyDescent="0.2">
       <c r="A30" s="0" t="s">
-        <v>152</v>
+        <v>768</v>
       </c>
       <c r="B30" s="0">
         <v>1</v>
@@ -1622,7 +3478,7 @@
     </row>
     <row r="31" x14ac:dyDescent="0.2">
       <c r="A31" s="0" t="s">
-        <v>153</v>
+        <v>769</v>
       </c>
       <c r="B31" s="0">
         <v>1</v>
@@ -1636,7 +3492,7 @@
     </row>
     <row r="32" x14ac:dyDescent="0.2">
       <c r="A32" s="0" t="s">
-        <v>154</v>
+        <v>770</v>
       </c>
       <c r="B32" s="0">
         <v>1</v>
@@ -1648,7 +3504,7 @@
     </row>
     <row r="33" x14ac:dyDescent="0.2">
       <c r="A33" s="0" t="s">
-        <v>154</v>
+        <v>770</v>
       </c>
       <c r="B33" s="0">
         <v>1</v>
@@ -1662,7 +3518,7 @@
     </row>
     <row r="34" x14ac:dyDescent="0.2">
       <c r="A34" s="0" t="s">
-        <v>154</v>
+        <v>770</v>
       </c>
       <c r="B34" s="0">
         <v>1</v>
@@ -1676,7 +3532,7 @@
     </row>
     <row r="35" x14ac:dyDescent="0.2">
       <c r="A35" s="0" t="s">
-        <v>154</v>
+        <v>770</v>
       </c>
       <c r="B35" s="0">
         <v>1</v>
@@ -1690,7 +3546,7 @@
     </row>
     <row r="36" x14ac:dyDescent="0.2">
       <c r="A36" s="0" t="s">
-        <v>154</v>
+        <v>770</v>
       </c>
       <c r="B36" s="0">
         <v>1</v>
@@ -1704,7 +3560,7 @@
     </row>
     <row r="37" x14ac:dyDescent="0.2">
       <c r="A37" s="0" t="s">
-        <v>154</v>
+        <v>770</v>
       </c>
       <c r="B37" s="0">
         <v>1</v>
@@ -1718,7 +3574,7 @@
     </row>
     <row r="38" x14ac:dyDescent="0.2">
       <c r="A38" s="0" t="s">
-        <v>154</v>
+        <v>770</v>
       </c>
       <c r="B38" s="0">
         <v>1</v>
@@ -1732,7 +3588,7 @@
     </row>
     <row r="39" x14ac:dyDescent="0.2">
       <c r="A39" s="0" t="s">
-        <v>154</v>
+        <v>770</v>
       </c>
       <c r="B39" s="0">
         <v>1</v>
@@ -1746,7 +3602,7 @@
     </row>
     <row r="40" x14ac:dyDescent="0.2">
       <c r="A40" s="0" t="s">
-        <v>155</v>
+        <v>771</v>
       </c>
       <c r="B40" s="0">
         <v>1</v>
@@ -1760,7 +3616,7 @@
     </row>
     <row r="41" x14ac:dyDescent="0.2">
       <c r="A41" s="0" t="s">
-        <v>155</v>
+        <v>771</v>
       </c>
       <c r="B41" s="0">
         <v>1</v>
@@ -1774,7 +3630,7 @@
     </row>
     <row r="42" x14ac:dyDescent="0.2">
       <c r="A42" s="0" t="s">
-        <v>156</v>
+        <v>772</v>
       </c>
       <c r="B42" s="0">
         <v>1</v>
@@ -1788,7 +3644,7 @@
     </row>
     <row r="43" x14ac:dyDescent="0.2">
       <c r="A43" s="0" t="s">
-        <v>157</v>
+        <v>773</v>
       </c>
       <c r="B43" s="0">
         <v>1</v>
@@ -1802,7 +3658,7 @@
     </row>
     <row r="44" x14ac:dyDescent="0.2">
       <c r="A44" s="0" t="s">
-        <v>158</v>
+        <v>774</v>
       </c>
       <c r="B44" s="0">
         <v>1</v>
@@ -1816,7 +3672,7 @@
     </row>
     <row r="45" x14ac:dyDescent="0.2">
       <c r="A45" s="0" t="s">
-        <v>158</v>
+        <v>774</v>
       </c>
       <c r="B45" s="0">
         <v>1</v>
@@ -1830,7 +3686,7 @@
     </row>
     <row r="46" x14ac:dyDescent="0.2">
       <c r="A46" s="0" t="s">
-        <v>159</v>
+        <v>775</v>
       </c>
       <c r="B46" s="0">
         <v>1</v>
@@ -1844,7 +3700,7 @@
     </row>
     <row r="47" x14ac:dyDescent="0.2">
       <c r="A47" s="0" t="s">
-        <v>160</v>
+        <v>776</v>
       </c>
       <c r="B47" s="0">
         <v>1</v>
@@ -1858,7 +3714,7 @@
     </row>
     <row r="48" x14ac:dyDescent="0.2">
       <c r="A48" s="0" t="s">
-        <v>161</v>
+        <v>777</v>
       </c>
       <c r="B48" s="0">
         <v>1</v>
@@ -1872,7 +3728,7 @@
     </row>
     <row r="49" x14ac:dyDescent="0.2">
       <c r="A49" s="0" t="s">
-        <v>161</v>
+        <v>777</v>
       </c>
       <c r="B49" s="0">
         <v>1</v>
@@ -1886,7 +3742,7 @@
     </row>
     <row r="50" x14ac:dyDescent="0.2">
       <c r="A50" s="0" t="s">
-        <v>162</v>
+        <v>778</v>
       </c>
       <c r="B50" s="0">
         <v>1</v>
@@ -1900,7 +3756,7 @@
     </row>
     <row r="51" x14ac:dyDescent="0.2">
       <c r="A51" s="0" t="s">
-        <v>163</v>
+        <v>779</v>
       </c>
       <c r="B51" s="0">
         <v>1</v>
@@ -1914,7 +3770,7 @@
     </row>
     <row r="52" x14ac:dyDescent="0.2">
       <c r="A52" s="0" t="s">
-        <v>163</v>
+        <v>779</v>
       </c>
       <c r="B52" s="0">
         <v>1</v>
@@ -1928,7 +3784,7 @@
     </row>
     <row r="53" x14ac:dyDescent="0.2">
       <c r="A53" s="0" t="s">
-        <v>164</v>
+        <v>780</v>
       </c>
       <c r="B53" s="0">
         <v>1</v>
@@ -1942,7 +3798,7 @@
     </row>
     <row r="54" x14ac:dyDescent="0.2">
       <c r="A54" s="0" t="s">
-        <v>165</v>
+        <v>781</v>
       </c>
       <c r="B54" s="0">
         <v>1</v>
@@ -1956,7 +3812,7 @@
     </row>
     <row r="55" x14ac:dyDescent="0.2">
       <c r="A55" s="0" t="s">
-        <v>166</v>
+        <v>782</v>
       </c>
       <c r="B55" s="0">
         <v>1</v>
@@ -1970,7 +3826,7 @@
     </row>
     <row r="56" x14ac:dyDescent="0.2">
       <c r="A56" s="0" t="s">
-        <v>167</v>
+        <v>783</v>
       </c>
       <c r="B56" s="0">
         <v>1</v>
@@ -1984,7 +3840,7 @@
     </row>
     <row r="57" x14ac:dyDescent="0.2">
       <c r="A57" s="0" t="s">
-        <v>167</v>
+        <v>783</v>
       </c>
       <c r="B57" s="0">
         <v>1</v>
@@ -1998,7 +3854,7 @@
     </row>
     <row r="58" x14ac:dyDescent="0.2">
       <c r="A58" s="0" t="s">
-        <v>168</v>
+        <v>784</v>
       </c>
       <c r="B58" s="0">
         <v>1</v>
@@ -2012,7 +3868,7 @@
     </row>
     <row r="59" x14ac:dyDescent="0.2">
       <c r="A59" s="0" t="s">
-        <v>169</v>
+        <v>785</v>
       </c>
       <c r="B59" s="0">
         <v>1</v>
@@ -2026,7 +3882,7 @@
     </row>
     <row r="60" x14ac:dyDescent="0.2">
       <c r="A60" s="0" t="s">
-        <v>169</v>
+        <v>785</v>
       </c>
       <c r="B60" s="0">
         <v>1</v>
@@ -2040,7 +3896,7 @@
     </row>
     <row r="61" x14ac:dyDescent="0.2">
       <c r="A61" s="0" t="s">
-        <v>170</v>
+        <v>786</v>
       </c>
       <c r="B61" s="0">
         <v>1</v>
@@ -2054,7 +3910,7 @@
     </row>
     <row r="62" x14ac:dyDescent="0.2">
       <c r="A62" s="0" t="s">
-        <v>170</v>
+        <v>786</v>
       </c>
       <c r="B62" s="0">
         <v>1</v>
@@ -2068,7 +3924,7 @@
     </row>
     <row r="63" x14ac:dyDescent="0.2">
       <c r="A63" s="0" t="s">
-        <v>171</v>
+        <v>787</v>
       </c>
       <c r="B63" s="0">
         <v>1</v>
@@ -2082,7 +3938,7 @@
     </row>
     <row r="64" x14ac:dyDescent="0.2">
       <c r="A64" s="0" t="s">
-        <v>172</v>
+        <v>788</v>
       </c>
       <c r="B64" s="0">
         <v>1</v>
@@ -2096,7 +3952,7 @@
     </row>
     <row r="65" x14ac:dyDescent="0.2">
       <c r="A65" s="0" t="s">
-        <v>172</v>
+        <v>788</v>
       </c>
       <c r="B65" s="0">
         <v>1</v>
@@ -2110,7 +3966,7 @@
     </row>
     <row r="66" x14ac:dyDescent="0.2">
       <c r="A66" s="0" t="s">
-        <v>172</v>
+        <v>788</v>
       </c>
       <c r="B66" s="0">
         <v>1</v>
@@ -2124,7 +3980,7 @@
     </row>
     <row r="67" x14ac:dyDescent="0.2">
       <c r="A67" s="0" t="s">
-        <v>172</v>
+        <v>788</v>
       </c>
       <c r="B67" s="0">
         <v>1</v>
@@ -2138,7 +3994,7 @@
     </row>
     <row r="68" x14ac:dyDescent="0.2">
       <c r="A68" s="0" t="s">
-        <v>173</v>
+        <v>789</v>
       </c>
       <c r="B68" s="0">
         <v>1</v>
@@ -2152,7 +4008,7 @@
     </row>
     <row r="69" x14ac:dyDescent="0.2">
       <c r="A69" s="0" t="s">
-        <v>173</v>
+        <v>789</v>
       </c>
       <c r="B69" s="0">
         <v>1</v>
@@ -2166,7 +4022,7 @@
     </row>
     <row r="70" x14ac:dyDescent="0.2">
       <c r="A70" s="0" t="s">
-        <v>173</v>
+        <v>789</v>
       </c>
       <c r="B70" s="0">
         <v>1</v>
@@ -2180,7 +4036,7 @@
     </row>
     <row r="71" x14ac:dyDescent="0.2">
       <c r="A71" s="0" t="s">
-        <v>173</v>
+        <v>789</v>
       </c>
       <c r="B71" s="0">
         <v>1</v>
@@ -2194,7 +4050,7 @@
     </row>
     <row r="72" x14ac:dyDescent="0.2">
       <c r="A72" s="0" t="s">
-        <v>174</v>
+        <v>790</v>
       </c>
       <c r="B72" s="0">
         <v>1</v>
@@ -2208,7 +4064,7 @@
     </row>
     <row r="73" x14ac:dyDescent="0.2">
       <c r="A73" s="0" t="s">
-        <v>175</v>
+        <v>791</v>
       </c>
       <c r="B73" s="0">
         <v>1</v>
@@ -2222,7 +4078,7 @@
     </row>
     <row r="74" x14ac:dyDescent="0.2">
       <c r="A74" s="0" t="s">
-        <v>176</v>
+        <v>792</v>
       </c>
       <c r="B74" s="0">
         <v>1</v>
@@ -2236,7 +4092,7 @@
     </row>
     <row r="75" x14ac:dyDescent="0.2">
       <c r="A75" s="0" t="s">
-        <v>177</v>
+        <v>793</v>
       </c>
       <c r="B75" s="0">
         <v>1</v>
@@ -2250,7 +4106,7 @@
     </row>
     <row r="76" x14ac:dyDescent="0.2">
       <c r="A76" s="0" t="s">
-        <v>178</v>
+        <v>794</v>
       </c>
       <c r="B76" s="0">
         <v>1</v>
@@ -2264,7 +4120,7 @@
     </row>
     <row r="77" x14ac:dyDescent="0.2">
       <c r="A77" s="0" t="s">
-        <v>179</v>
+        <v>795</v>
       </c>
       <c r="B77" s="0">
         <v>1</v>
@@ -2278,7 +4134,7 @@
     </row>
     <row r="78" x14ac:dyDescent="0.2">
       <c r="A78" s="0" t="s">
-        <v>180</v>
+        <v>796</v>
       </c>
       <c r="B78" s="0">
         <v>1</v>
@@ -2292,7 +4148,7 @@
     </row>
     <row r="79" x14ac:dyDescent="0.2">
       <c r="A79" s="0" t="s">
-        <v>180</v>
+        <v>796</v>
       </c>
       <c r="B79" s="0">
         <v>1</v>
@@ -2306,7 +4162,7 @@
     </row>
     <row r="80" x14ac:dyDescent="0.2">
       <c r="A80" s="0" t="s">
-        <v>180</v>
+        <v>796</v>
       </c>
       <c r="B80" s="0">
         <v>1</v>
@@ -2320,7 +4176,7 @@
     </row>
     <row r="81" x14ac:dyDescent="0.2">
       <c r="A81" s="0" t="s">
-        <v>181</v>
+        <v>797</v>
       </c>
       <c r="B81" s="0">
         <v>1</v>
@@ -2334,7 +4190,7 @@
     </row>
     <row r="82" x14ac:dyDescent="0.2">
       <c r="A82" s="0" t="s">
-        <v>182</v>
+        <v>798</v>
       </c>
       <c r="B82" s="0">
         <v>1</v>
@@ -2348,7 +4204,7 @@
     </row>
     <row r="83" x14ac:dyDescent="0.2">
       <c r="A83" s="0" t="s">
-        <v>182</v>
+        <v>798</v>
       </c>
       <c r="B83" s="0">
         <v>1</v>
@@ -2362,7 +4218,7 @@
     </row>
     <row r="84" x14ac:dyDescent="0.2">
       <c r="A84" s="0" t="s">
-        <v>183</v>
+        <v>799</v>
       </c>
       <c r="B84" s="0">
         <v>1</v>
@@ -2376,7 +4232,7 @@
     </row>
     <row r="85" x14ac:dyDescent="0.2">
       <c r="A85" s="0" t="s">
-        <v>184</v>
+        <v>800</v>
       </c>
       <c r="B85" s="0">
         <v>1</v>
@@ -2390,7 +4246,7 @@
     </row>
     <row r="86" x14ac:dyDescent="0.2">
       <c r="A86" s="0" t="s">
-        <v>184</v>
+        <v>800</v>
       </c>
       <c r="B86" s="0">
         <v>1</v>
@@ -2404,7 +4260,7 @@
     </row>
     <row r="87" x14ac:dyDescent="0.2">
       <c r="A87" s="0" t="s">
-        <v>185</v>
+        <v>801</v>
       </c>
       <c r="B87" s="0">
         <v>1</v>
@@ -2418,7 +4274,7 @@
     </row>
     <row r="88" x14ac:dyDescent="0.2">
       <c r="A88" s="0" t="s">
-        <v>186</v>
+        <v>802</v>
       </c>
       <c r="B88" s="0">
         <v>1</v>
@@ -2432,7 +4288,7 @@
     </row>
     <row r="89" x14ac:dyDescent="0.2">
       <c r="A89" s="0" t="s">
-        <v>186</v>
+        <v>802</v>
       </c>
       <c r="B89" s="0">
         <v>1</v>
@@ -2446,7 +4302,7 @@
     </row>
     <row r="90" x14ac:dyDescent="0.2">
       <c r="A90" s="0" t="s">
-        <v>187</v>
+        <v>803</v>
       </c>
       <c r="B90" s="0">
         <v>1</v>
@@ -2460,7 +4316,7 @@
     </row>
     <row r="91" x14ac:dyDescent="0.2">
       <c r="A91" s="0" t="s">
-        <v>187</v>
+        <v>803</v>
       </c>
       <c r="B91" s="0">
         <v>1</v>
@@ -2474,7 +4330,7 @@
     </row>
     <row r="92" x14ac:dyDescent="0.2">
       <c r="A92" s="0" t="s">
-        <v>187</v>
+        <v>803</v>
       </c>
       <c r="B92" s="0">
         <v>1</v>
@@ -2488,7 +4344,7 @@
     </row>
     <row r="93" x14ac:dyDescent="0.2">
       <c r="A93" s="0" t="s">
-        <v>187</v>
+        <v>803</v>
       </c>
       <c r="B93" s="0">
         <v>1</v>
@@ -2502,7 +4358,7 @@
     </row>
     <row r="94" x14ac:dyDescent="0.2">
       <c r="A94" s="0" t="s">
-        <v>188</v>
+        <v>804</v>
       </c>
       <c r="B94" s="0">
         <v>1</v>
@@ -2516,7 +4372,7 @@
     </row>
     <row r="95" x14ac:dyDescent="0.2">
       <c r="A95" s="0" t="s">
-        <v>189</v>
+        <v>805</v>
       </c>
       <c r="B95" s="0">
         <v>1</v>
@@ -2530,7 +4386,7 @@
     </row>
     <row r="96" x14ac:dyDescent="0.2">
       <c r="A96" s="0" t="s">
-        <v>190</v>
+        <v>806</v>
       </c>
       <c r="B96" s="0">
         <v>1</v>
@@ -2544,7 +4400,7 @@
     </row>
     <row r="97" x14ac:dyDescent="0.2">
       <c r="A97" s="0" t="s">
-        <v>190</v>
+        <v>806</v>
       </c>
       <c r="B97" s="0">
         <v>1</v>
@@ -2558,7 +4414,7 @@
     </row>
     <row r="98" x14ac:dyDescent="0.2">
       <c r="A98" s="0" t="s">
-        <v>190</v>
+        <v>806</v>
       </c>
       <c r="B98" s="0">
         <v>1</v>
@@ -2572,7 +4428,7 @@
     </row>
     <row r="99" x14ac:dyDescent="0.2">
       <c r="A99" s="0" t="s">
-        <v>191</v>
+        <v>807</v>
       </c>
       <c r="B99" s="0">
         <v>1</v>
@@ -2586,7 +4442,7 @@
     </row>
     <row r="100" x14ac:dyDescent="0.2">
       <c r="A100" s="0" t="s">
-        <v>192</v>
+        <v>808</v>
       </c>
       <c r="B100" s="0">
         <v>1</v>
@@ -2600,7 +4456,7 @@
     </row>
     <row r="101" x14ac:dyDescent="0.2">
       <c r="A101" s="0" t="s">
-        <v>192</v>
+        <v>808</v>
       </c>
       <c r="B101" s="0">
         <v>1</v>
@@ -2614,7 +4470,7 @@
     </row>
     <row r="102" x14ac:dyDescent="0.2">
       <c r="A102" s="0" t="s">
-        <v>192</v>
+        <v>808</v>
       </c>
       <c r="B102" s="0">
         <v>1</v>
@@ -2628,7 +4484,7 @@
     </row>
     <row r="103" x14ac:dyDescent="0.2">
       <c r="A103" s="0" t="s">
-        <v>192</v>
+        <v>808</v>
       </c>
       <c r="B103" s="0">
         <v>1</v>
@@ -2642,7 +4498,7 @@
     </row>
     <row r="104" x14ac:dyDescent="0.2">
       <c r="A104" s="0" t="s">
-        <v>193</v>
+        <v>809</v>
       </c>
       <c r="B104" s="0">
         <v>1</v>
@@ -2656,7 +4512,7 @@
     </row>
     <row r="105" x14ac:dyDescent="0.2">
       <c r="A105" s="0" t="s">
-        <v>194</v>
+        <v>810</v>
       </c>
       <c r="B105" s="0">
         <v>1</v>
@@ -2670,7 +4526,7 @@
     </row>
     <row r="106" x14ac:dyDescent="0.2">
       <c r="A106" s="0" t="s">
-        <v>194</v>
+        <v>810</v>
       </c>
       <c r="B106" s="0">
         <v>1</v>
@@ -2684,7 +4540,7 @@
     </row>
     <row r="107" x14ac:dyDescent="0.2">
       <c r="A107" s="0" t="s">
-        <v>194</v>
+        <v>810</v>
       </c>
       <c r="B107" s="0">
         <v>1</v>
@@ -2698,7 +4554,7 @@
     </row>
     <row r="108" x14ac:dyDescent="0.2">
       <c r="A108" s="0" t="s">
-        <v>194</v>
+        <v>810</v>
       </c>
       <c r="B108" s="0">
         <v>1</v>
@@ -2712,7 +4568,7 @@
     </row>
     <row r="109" x14ac:dyDescent="0.2">
       <c r="A109" s="0" t="s">
-        <v>194</v>
+        <v>810</v>
       </c>
       <c r="B109" s="0">
         <v>1</v>
@@ -2726,7 +4582,7 @@
     </row>
     <row r="110" x14ac:dyDescent="0.2">
       <c r="A110" s="0" t="s">
-        <v>194</v>
+        <v>810</v>
       </c>
       <c r="B110" s="0">
         <v>1</v>
@@ -2740,7 +4596,7 @@
     </row>
     <row r="111" x14ac:dyDescent="0.2">
       <c r="A111" s="0" t="s">
-        <v>194</v>
+        <v>810</v>
       </c>
       <c r="B111" s="0">
         <v>1</v>
@@ -2754,7 +4610,7 @@
     </row>
     <row r="112" x14ac:dyDescent="0.2">
       <c r="A112" s="0" t="s">
-        <v>194</v>
+        <v>810</v>
       </c>
       <c r="B112" s="0">
         <v>1</v>
@@ -2768,7 +4624,7 @@
     </row>
     <row r="113" x14ac:dyDescent="0.2">
       <c r="A113" s="0" t="s">
-        <v>195</v>
+        <v>811</v>
       </c>
       <c r="B113" s="0">
         <v>1</v>
@@ -2782,7 +4638,7 @@
     </row>
     <row r="114" x14ac:dyDescent="0.2">
       <c r="A114" s="0" t="s">
-        <v>195</v>
+        <v>811</v>
       </c>
       <c r="B114" s="0">
         <v>1</v>
@@ -2796,7 +4652,7 @@
     </row>
     <row r="115" x14ac:dyDescent="0.2">
       <c r="A115" s="0" t="s">
-        <v>196</v>
+        <v>812</v>
       </c>
       <c r="B115" s="0">
         <v>1</v>
@@ -2810,7 +4666,7 @@
     </row>
     <row r="116" x14ac:dyDescent="0.2">
       <c r="A116" s="0" t="s">
-        <v>196</v>
+        <v>812</v>
       </c>
       <c r="B116" s="0">
         <v>1</v>
@@ -2824,7 +4680,7 @@
     </row>
     <row r="117" x14ac:dyDescent="0.2">
       <c r="A117" s="0" t="s">
-        <v>197</v>
+        <v>813</v>
       </c>
       <c r="B117" s="0">
         <v>1</v>
@@ -2838,7 +4694,7 @@
     </row>
     <row r="118" x14ac:dyDescent="0.2">
       <c r="A118" s="0" t="s">
-        <v>198</v>
+        <v>814</v>
       </c>
       <c r="B118" s="0">
         <v>1</v>
@@ -2852,7 +4708,7 @@
     </row>
     <row r="119" x14ac:dyDescent="0.2">
       <c r="A119" s="0" t="s">
-        <v>198</v>
+        <v>814</v>
       </c>
       <c r="B119" s="0">
         <v>1</v>
@@ -2866,7 +4722,7 @@
     </row>
     <row r="120" x14ac:dyDescent="0.2">
       <c r="A120" s="0" t="s">
-        <v>199</v>
+        <v>815</v>
       </c>
       <c r="B120" s="0">
         <v>1</v>
@@ -2880,7 +4736,7 @@
     </row>
     <row r="121" x14ac:dyDescent="0.2">
       <c r="A121" s="0" t="s">
-        <v>199</v>
+        <v>815</v>
       </c>
       <c r="B121" s="0">
         <v>1</v>
@@ -2894,7 +4750,7 @@
     </row>
     <row r="122" x14ac:dyDescent="0.2">
       <c r="A122" s="0" t="s">
-        <v>199</v>
+        <v>815</v>
       </c>
       <c r="B122" s="0">
         <v>1</v>
@@ -2908,7 +4764,7 @@
     </row>
     <row r="123" x14ac:dyDescent="0.2">
       <c r="A123" s="0" t="s">
-        <v>199</v>
+        <v>815</v>
       </c>
       <c r="B123" s="0">
         <v>1</v>
@@ -2922,7 +4778,7 @@
     </row>
     <row r="124" x14ac:dyDescent="0.2">
       <c r="A124" s="0" t="s">
-        <v>199</v>
+        <v>815</v>
       </c>
       <c r="B124" s="0">
         <v>1</v>
@@ -2936,7 +4792,7 @@
     </row>
     <row r="125" x14ac:dyDescent="0.2">
       <c r="A125" s="0" t="s">
-        <v>199</v>
+        <v>815</v>
       </c>
       <c r="B125" s="0">
         <v>1</v>
@@ -2950,7 +4806,7 @@
     </row>
     <row r="126" x14ac:dyDescent="0.2">
       <c r="A126" s="0" t="s">
-        <v>199</v>
+        <v>815</v>
       </c>
       <c r="B126" s="0">
         <v>1</v>
@@ -2964,7 +4820,7 @@
     </row>
     <row r="127" x14ac:dyDescent="0.2">
       <c r="A127" s="0" t="s">
-        <v>199</v>
+        <v>815</v>
       </c>
       <c r="B127" s="0">
         <v>1</v>
@@ -2978,7 +4834,7 @@
     </row>
     <row r="128" x14ac:dyDescent="0.2">
       <c r="A128" s="0" t="s">
-        <v>200</v>
+        <v>816</v>
       </c>
       <c r="B128" s="0">
         <v>1</v>
@@ -2992,7 +4848,7 @@
     </row>
     <row r="129" x14ac:dyDescent="0.2">
       <c r="A129" s="0" t="s">
-        <v>200</v>
+        <v>816</v>
       </c>
       <c r="B129" s="0">
         <v>1</v>
@@ -3006,7 +4862,7 @@
     </row>
     <row r="130" x14ac:dyDescent="0.2">
       <c r="A130" s="0" t="s">
-        <v>201</v>
+        <v>817</v>
       </c>
       <c r="B130" s="0">
         <v>1</v>
@@ -3020,7 +4876,7 @@
     </row>
     <row r="131" x14ac:dyDescent="0.2">
       <c r="A131" s="0" t="s">
-        <v>201</v>
+        <v>817</v>
       </c>
       <c r="B131" s="0">
         <v>1</v>
@@ -3034,7 +4890,7 @@
     </row>
     <row r="132" x14ac:dyDescent="0.2">
       <c r="A132" s="0" t="s">
-        <v>202</v>
+        <v>818</v>
       </c>
       <c r="B132" s="0">
         <v>1</v>
@@ -3048,7 +4904,7 @@
     </row>
     <row r="133" x14ac:dyDescent="0.2">
       <c r="A133" s="0" t="s">
-        <v>202</v>
+        <v>818</v>
       </c>
       <c r="B133" s="0">
         <v>1</v>
@@ -3062,7 +4918,7 @@
     </row>
     <row r="134" x14ac:dyDescent="0.2">
       <c r="A134" s="0" t="s">
-        <v>202</v>
+        <v>818</v>
       </c>
       <c r="B134" s="0">
         <v>1</v>
@@ -3074,7 +4930,7 @@
     </row>
     <row r="135" x14ac:dyDescent="0.2">
       <c r="A135" s="0" t="s">
-        <v>202</v>
+        <v>818</v>
       </c>
       <c r="B135" s="0">
         <v>1</v>
@@ -3088,7 +4944,7 @@
     </row>
     <row r="136" x14ac:dyDescent="0.2">
       <c r="A136" s="0" t="s">
-        <v>202</v>
+        <v>818</v>
       </c>
       <c r="B136" s="0">
         <v>1</v>
@@ -3102,7 +4958,7 @@
     </row>
     <row r="137" x14ac:dyDescent="0.2">
       <c r="A137" s="0" t="s">
-        <v>202</v>
+        <v>818</v>
       </c>
       <c r="B137" s="0">
         <v>1</v>
@@ -3116,7 +4972,7 @@
     </row>
     <row r="138" x14ac:dyDescent="0.2">
       <c r="A138" s="0" t="s">
-        <v>202</v>
+        <v>818</v>
       </c>
       <c r="B138" s="0">
         <v>1</v>
@@ -3128,7 +4984,7 @@
     </row>
     <row r="139" x14ac:dyDescent="0.2">
       <c r="A139" s="0" t="s">
-        <v>202</v>
+        <v>818</v>
       </c>
       <c r="B139" s="0">
         <v>1</v>
@@ -3142,7 +4998,7 @@
     </row>
     <row r="140" x14ac:dyDescent="0.2">
       <c r="A140" s="0" t="s">
-        <v>203</v>
+        <v>819</v>
       </c>
       <c r="B140" s="0">
         <v>2</v>
@@ -3156,7 +5012,7 @@
     </row>
     <row r="141" x14ac:dyDescent="0.2">
       <c r="A141" s="0" t="s">
-        <v>203</v>
+        <v>819</v>
       </c>
       <c r="B141" s="0">
         <v>2</v>
@@ -3170,7 +5026,7 @@
     </row>
     <row r="142" x14ac:dyDescent="0.2">
       <c r="A142" s="0" t="s">
-        <v>204</v>
+        <v>820</v>
       </c>
       <c r="B142" s="0">
         <v>2</v>
@@ -3184,7 +5040,7 @@
     </row>
     <row r="143" x14ac:dyDescent="0.2">
       <c r="A143" s="0" t="s">
-        <v>205</v>
+        <v>821</v>
       </c>
       <c r="B143" s="0">
         <v>2</v>
@@ -3198,7 +5054,7 @@
     </row>
     <row r="144" x14ac:dyDescent="0.2">
       <c r="A144" s="0" t="s">
-        <v>206</v>
+        <v>822</v>
       </c>
       <c r="B144" s="0">
         <v>2</v>
@@ -3212,7 +5068,7 @@
     </row>
     <row r="145" x14ac:dyDescent="0.2">
       <c r="A145" s="0" t="s">
-        <v>207</v>
+        <v>823</v>
       </c>
       <c r="B145" s="0">
         <v>2</v>
@@ -3226,7 +5082,7 @@
     </row>
     <row r="146" x14ac:dyDescent="0.2">
       <c r="A146" s="0" t="s">
-        <v>207</v>
+        <v>823</v>
       </c>
       <c r="B146" s="0">
         <v>2</v>
@@ -3240,7 +5096,7 @@
     </row>
     <row r="147" x14ac:dyDescent="0.2">
       <c r="A147" s="0" t="s">
-        <v>208</v>
+        <v>824</v>
       </c>
       <c r="B147" s="0">
         <v>2</v>
@@ -3254,7 +5110,7 @@
     </row>
     <row r="148" x14ac:dyDescent="0.2">
       <c r="A148" s="0" t="s">
-        <v>209</v>
+        <v>825</v>
       </c>
       <c r="B148" s="0">
         <v>2</v>
@@ -3268,7 +5124,7 @@
     </row>
     <row r="149" x14ac:dyDescent="0.2">
       <c r="A149" s="0" t="s">
-        <v>210</v>
+        <v>826</v>
       </c>
       <c r="B149" s="0">
         <v>2</v>
@@ -3282,7 +5138,7 @@
     </row>
     <row r="150" x14ac:dyDescent="0.2">
       <c r="A150" s="0" t="s">
-        <v>211</v>
+        <v>827</v>
       </c>
       <c r="B150" s="0">
         <v>2</v>
@@ -3296,7 +5152,7 @@
     </row>
     <row r="151" x14ac:dyDescent="0.2">
       <c r="A151" s="0" t="s">
-        <v>211</v>
+        <v>827</v>
       </c>
       <c r="B151" s="0">
         <v>2</v>
@@ -3310,7 +5166,7 @@
     </row>
     <row r="152" x14ac:dyDescent="0.2">
       <c r="A152" s="0" t="s">
-        <v>211</v>
+        <v>827</v>
       </c>
       <c r="B152" s="0">
         <v>2</v>
@@ -3324,7 +5180,7 @@
     </row>
     <row r="153" x14ac:dyDescent="0.2">
       <c r="A153" s="0" t="s">
-        <v>211</v>
+        <v>827</v>
       </c>
       <c r="B153" s="0">
         <v>2</v>
@@ -3338,7 +5194,7 @@
     </row>
     <row r="154" x14ac:dyDescent="0.2">
       <c r="A154" s="0" t="s">
-        <v>212</v>
+        <v>828</v>
       </c>
       <c r="B154" s="0">
         <v>2</v>
@@ -3352,7 +5208,7 @@
     </row>
     <row r="155" x14ac:dyDescent="0.2">
       <c r="A155" s="0" t="s">
-        <v>213</v>
+        <v>829</v>
       </c>
       <c r="B155" s="0">
         <v>2</v>
@@ -3366,7 +5222,7 @@
     </row>
     <row r="156" x14ac:dyDescent="0.2">
       <c r="A156" s="0" t="s">
-        <v>213</v>
+        <v>829</v>
       </c>
       <c r="B156" s="0">
         <v>2</v>
@@ -3380,7 +5236,7 @@
     </row>
     <row r="157" x14ac:dyDescent="0.2">
       <c r="A157" s="0" t="s">
-        <v>214</v>
+        <v>830</v>
       </c>
       <c r="B157" s="0">
         <v>2</v>
@@ -3394,7 +5250,7 @@
     </row>
     <row r="158" x14ac:dyDescent="0.2">
       <c r="A158" s="0" t="s">
-        <v>214</v>
+        <v>830</v>
       </c>
       <c r="B158" s="0">
         <v>2</v>
@@ -3408,7 +5264,7 @@
     </row>
     <row r="159" x14ac:dyDescent="0.2">
       <c r="A159" s="0" t="s">
-        <v>214</v>
+        <v>830</v>
       </c>
       <c r="B159" s="0">
         <v>2</v>
@@ -3422,7 +5278,7 @@
     </row>
     <row r="160" x14ac:dyDescent="0.2">
       <c r="A160" s="0" t="s">
-        <v>215</v>
+        <v>831</v>
       </c>
       <c r="B160" s="0">
         <v>2</v>
@@ -3436,7 +5292,7 @@
     </row>
     <row r="161" x14ac:dyDescent="0.2">
       <c r="A161" s="0" t="s">
-        <v>215</v>
+        <v>831</v>
       </c>
       <c r="B161" s="0">
         <v>2</v>
@@ -3450,7 +5306,7 @@
     </row>
     <row r="162" x14ac:dyDescent="0.2">
       <c r="A162" s="0" t="s">
-        <v>215</v>
+        <v>831</v>
       </c>
       <c r="B162" s="0">
         <v>2</v>
@@ -3464,7 +5320,7 @@
     </row>
     <row r="163" x14ac:dyDescent="0.2">
       <c r="A163" s="0" t="s">
-        <v>216</v>
+        <v>832</v>
       </c>
       <c r="B163" s="0">
         <v>2</v>
@@ -3478,7 +5334,7 @@
     </row>
     <row r="164" x14ac:dyDescent="0.2">
       <c r="A164" s="0" t="s">
-        <v>216</v>
+        <v>832</v>
       </c>
       <c r="B164" s="0">
         <v>2</v>
@@ -3492,7 +5348,7 @@
     </row>
     <row r="165" x14ac:dyDescent="0.2">
       <c r="A165" s="0" t="s">
-        <v>216</v>
+        <v>832</v>
       </c>
       <c r="B165" s="0">
         <v>2</v>
@@ -3506,7 +5362,7 @@
     </row>
     <row r="166" x14ac:dyDescent="0.2">
       <c r="A166" s="0" t="s">
-        <v>216</v>
+        <v>832</v>
       </c>
       <c r="B166" s="0">
         <v>2</v>
@@ -3520,7 +5376,7 @@
     </row>
     <row r="167" x14ac:dyDescent="0.2">
       <c r="A167" s="0" t="s">
-        <v>217</v>
+        <v>833</v>
       </c>
       <c r="B167" s="0">
         <v>2</v>
@@ -3534,7 +5390,7 @@
     </row>
     <row r="168" x14ac:dyDescent="0.2">
       <c r="A168" s="0" t="s">
-        <v>218</v>
+        <v>834</v>
       </c>
       <c r="B168" s="0">
         <v>2</v>
@@ -3548,7 +5404,7 @@
     </row>
     <row r="169" x14ac:dyDescent="0.2">
       <c r="A169" s="0" t="s">
-        <v>219</v>
+        <v>835</v>
       </c>
       <c r="B169" s="0">
         <v>2</v>
@@ -3562,7 +5418,7 @@
     </row>
     <row r="170" x14ac:dyDescent="0.2">
       <c r="A170" s="0" t="s">
-        <v>220</v>
+        <v>836</v>
       </c>
       <c r="B170" s="0">
         <v>2</v>
@@ -3574,7 +5430,7 @@
     </row>
     <row r="171" x14ac:dyDescent="0.2">
       <c r="A171" s="0" t="s">
-        <v>220</v>
+        <v>836</v>
       </c>
       <c r="B171" s="0">
         <v>2</v>
@@ -3588,7 +5444,7 @@
     </row>
     <row r="172" x14ac:dyDescent="0.2">
       <c r="A172" s="0" t="s">
-        <v>220</v>
+        <v>836</v>
       </c>
       <c r="B172" s="0">
         <v>2</v>
@@ -3602,7 +5458,7 @@
     </row>
     <row r="173" x14ac:dyDescent="0.2">
       <c r="A173" s="0" t="s">
-        <v>220</v>
+        <v>836</v>
       </c>
       <c r="B173" s="0">
         <v>2</v>
@@ -3616,7 +5472,7 @@
     </row>
     <row r="174" x14ac:dyDescent="0.2">
       <c r="A174" s="0" t="s">
-        <v>220</v>
+        <v>836</v>
       </c>
       <c r="B174" s="0">
         <v>2</v>
@@ -3630,7 +5486,7 @@
     </row>
     <row r="175" x14ac:dyDescent="0.2">
       <c r="A175" s="0" t="s">
-        <v>220</v>
+        <v>836</v>
       </c>
       <c r="B175" s="0">
         <v>2</v>
@@ -3644,7 +5500,7 @@
     </row>
     <row r="176" x14ac:dyDescent="0.2">
       <c r="A176" s="0" t="s">
-        <v>220</v>
+        <v>836</v>
       </c>
       <c r="B176" s="0">
         <v>2</v>
@@ -3658,7 +5514,7 @@
     </row>
     <row r="177" x14ac:dyDescent="0.2">
       <c r="A177" s="0" t="s">
-        <v>220</v>
+        <v>836</v>
       </c>
       <c r="B177" s="0">
         <v>2</v>
@@ -3672,7 +5528,7 @@
     </row>
     <row r="178" x14ac:dyDescent="0.2">
       <c r="A178" s="0" t="s">
-        <v>221</v>
+        <v>837</v>
       </c>
       <c r="B178" s="0">
         <v>2</v>
@@ -3686,7 +5542,7 @@
     </row>
     <row r="179" x14ac:dyDescent="0.2">
       <c r="A179" s="0" t="s">
-        <v>221</v>
+        <v>837</v>
       </c>
       <c r="B179" s="0">
         <v>2</v>
@@ -3700,7 +5556,7 @@
     </row>
     <row r="180" x14ac:dyDescent="0.2">
       <c r="A180" s="0" t="s">
-        <v>222</v>
+        <v>838</v>
       </c>
       <c r="B180" s="0">
         <v>2</v>
@@ -3714,7 +5570,7 @@
     </row>
     <row r="181" x14ac:dyDescent="0.2">
       <c r="A181" s="0" t="s">
-        <v>223</v>
+        <v>839</v>
       </c>
       <c r="B181" s="0">
         <v>2</v>
@@ -3728,7 +5584,7 @@
     </row>
     <row r="182" x14ac:dyDescent="0.2">
       <c r="A182" s="0" t="s">
-        <v>224</v>
+        <v>840</v>
       </c>
       <c r="B182" s="0">
         <v>2</v>
@@ -3742,7 +5598,7 @@
     </row>
     <row r="183" x14ac:dyDescent="0.2">
       <c r="A183" s="0" t="s">
-        <v>224</v>
+        <v>840</v>
       </c>
       <c r="B183" s="0">
         <v>2</v>
@@ -3756,7 +5612,7 @@
     </row>
     <row r="184" x14ac:dyDescent="0.2">
       <c r="A184" s="0" t="s">
-        <v>225</v>
+        <v>841</v>
       </c>
       <c r="B184" s="0">
         <v>2</v>
@@ -3770,7 +5626,7 @@
     </row>
     <row r="185" x14ac:dyDescent="0.2">
       <c r="A185" s="0" t="s">
-        <v>226</v>
+        <v>842</v>
       </c>
       <c r="B185" s="0">
         <v>2</v>
@@ -3784,7 +5640,7 @@
     </row>
     <row r="186" x14ac:dyDescent="0.2">
       <c r="A186" s="0" t="s">
-        <v>227</v>
+        <v>843</v>
       </c>
       <c r="B186" s="0">
         <v>2</v>
@@ -3798,7 +5654,7 @@
     </row>
     <row r="187" x14ac:dyDescent="0.2">
       <c r="A187" s="0" t="s">
-        <v>227</v>
+        <v>843</v>
       </c>
       <c r="B187" s="0">
         <v>2</v>
@@ -3812,7 +5668,7 @@
     </row>
     <row r="188" x14ac:dyDescent="0.2">
       <c r="A188" s="0" t="s">
-        <v>228</v>
+        <v>844</v>
       </c>
       <c r="B188" s="0">
         <v>2</v>
@@ -3826,7 +5682,7 @@
     </row>
     <row r="189" x14ac:dyDescent="0.2">
       <c r="A189" s="0" t="s">
-        <v>229</v>
+        <v>845</v>
       </c>
       <c r="B189" s="0">
         <v>2</v>
@@ -3840,7 +5696,7 @@
     </row>
     <row r="190" x14ac:dyDescent="0.2">
       <c r="A190" s="0" t="s">
-        <v>229</v>
+        <v>845</v>
       </c>
       <c r="B190" s="0">
         <v>2</v>
@@ -3854,7 +5710,7 @@
     </row>
     <row r="191" x14ac:dyDescent="0.2">
       <c r="A191" s="0" t="s">
-        <v>230</v>
+        <v>846</v>
       </c>
       <c r="B191" s="0">
         <v>2</v>
@@ -3868,7 +5724,7 @@
     </row>
     <row r="192" x14ac:dyDescent="0.2">
       <c r="A192" s="0" t="s">
-        <v>231</v>
+        <v>847</v>
       </c>
       <c r="B192" s="0">
         <v>2</v>
@@ -3882,7 +5738,7 @@
     </row>
     <row r="193" x14ac:dyDescent="0.2">
       <c r="A193" s="0" t="s">
-        <v>232</v>
+        <v>848</v>
       </c>
       <c r="B193" s="0">
         <v>2</v>
@@ -3896,7 +5752,7 @@
     </row>
     <row r="194" x14ac:dyDescent="0.2">
       <c r="A194" s="0" t="s">
-        <v>233</v>
+        <v>849</v>
       </c>
       <c r="B194" s="0">
         <v>2</v>
@@ -3910,7 +5766,7 @@
     </row>
     <row r="195" x14ac:dyDescent="0.2">
       <c r="A195" s="0" t="s">
-        <v>233</v>
+        <v>849</v>
       </c>
       <c r="B195" s="0">
         <v>2</v>
@@ -3924,7 +5780,7 @@
     </row>
     <row r="196" x14ac:dyDescent="0.2">
       <c r="A196" s="0" t="s">
-        <v>234</v>
+        <v>850</v>
       </c>
       <c r="B196" s="0">
         <v>2</v>
@@ -3938,7 +5794,7 @@
     </row>
     <row r="197" x14ac:dyDescent="0.2">
       <c r="A197" s="0" t="s">
-        <v>235</v>
+        <v>851</v>
       </c>
       <c r="B197" s="0">
         <v>2</v>
@@ -3952,7 +5808,7 @@
     </row>
     <row r="198" x14ac:dyDescent="0.2">
       <c r="A198" s="0" t="s">
-        <v>235</v>
+        <v>851</v>
       </c>
       <c r="B198" s="0">
         <v>2</v>
@@ -3966,7 +5822,7 @@
     </row>
     <row r="199" x14ac:dyDescent="0.2">
       <c r="A199" s="0" t="s">
-        <v>236</v>
+        <v>852</v>
       </c>
       <c r="B199" s="0">
         <v>2</v>
@@ -3980,7 +5836,7 @@
     </row>
     <row r="200" x14ac:dyDescent="0.2">
       <c r="A200" s="0" t="s">
-        <v>236</v>
+        <v>852</v>
       </c>
       <c r="B200" s="0">
         <v>2</v>
@@ -3994,7 +5850,7 @@
     </row>
     <row r="201" x14ac:dyDescent="0.2">
       <c r="A201" s="0" t="s">
-        <v>237</v>
+        <v>853</v>
       </c>
       <c r="B201" s="0">
         <v>2</v>
@@ -4008,7 +5864,7 @@
     </row>
     <row r="202" x14ac:dyDescent="0.2">
       <c r="A202" s="0" t="s">
-        <v>238</v>
+        <v>854</v>
       </c>
       <c r="B202" s="0">
         <v>2</v>
@@ -4022,7 +5878,7 @@
     </row>
     <row r="203" x14ac:dyDescent="0.2">
       <c r="A203" s="0" t="s">
-        <v>238</v>
+        <v>854</v>
       </c>
       <c r="B203" s="0">
         <v>2</v>
@@ -4036,7 +5892,7 @@
     </row>
     <row r="204" x14ac:dyDescent="0.2">
       <c r="A204" s="0" t="s">
-        <v>238</v>
+        <v>854</v>
       </c>
       <c r="B204" s="0">
         <v>2</v>
@@ -4050,7 +5906,7 @@
     </row>
     <row r="205" x14ac:dyDescent="0.2">
       <c r="A205" s="0" t="s">
-        <v>238</v>
+        <v>854</v>
       </c>
       <c r="B205" s="0">
         <v>2</v>
@@ -4064,7 +5920,7 @@
     </row>
     <row r="206" x14ac:dyDescent="0.2">
       <c r="A206" s="0" t="s">
-        <v>239</v>
+        <v>855</v>
       </c>
       <c r="B206" s="0">
         <v>2</v>
@@ -4078,7 +5934,7 @@
     </row>
     <row r="207" x14ac:dyDescent="0.2">
       <c r="A207" s="0" t="s">
-        <v>239</v>
+        <v>855</v>
       </c>
       <c r="B207" s="0">
         <v>2</v>
@@ -4092,7 +5948,7 @@
     </row>
     <row r="208" x14ac:dyDescent="0.2">
       <c r="A208" s="0" t="s">
-        <v>239</v>
+        <v>855</v>
       </c>
       <c r="B208" s="0">
         <v>2</v>
@@ -4106,7 +5962,7 @@
     </row>
     <row r="209" x14ac:dyDescent="0.2">
       <c r="A209" s="0" t="s">
-        <v>239</v>
+        <v>855</v>
       </c>
       <c r="B209" s="0">
         <v>2</v>
@@ -4120,7 +5976,7 @@
     </row>
     <row r="210" x14ac:dyDescent="0.2">
       <c r="A210" s="0" t="s">
-        <v>240</v>
+        <v>856</v>
       </c>
       <c r="B210" s="0">
         <v>2</v>
@@ -4134,7 +5990,7 @@
     </row>
     <row r="211" x14ac:dyDescent="0.2">
       <c r="A211" s="0" t="s">
-        <v>241</v>
+        <v>857</v>
       </c>
       <c r="B211" s="0">
         <v>2</v>
@@ -4148,7 +6004,7 @@
     </row>
     <row r="212" x14ac:dyDescent="0.2">
       <c r="A212" s="0" t="s">
-        <v>242</v>
+        <v>858</v>
       </c>
       <c r="B212" s="0">
         <v>2</v>
@@ -4162,7 +6018,7 @@
     </row>
     <row r="213" x14ac:dyDescent="0.2">
       <c r="A213" s="0" t="s">
-        <v>243</v>
+        <v>859</v>
       </c>
       <c r="B213" s="0">
         <v>2</v>
@@ -4176,7 +6032,7 @@
     </row>
     <row r="214" x14ac:dyDescent="0.2">
       <c r="A214" s="0" t="s">
-        <v>244</v>
+        <v>860</v>
       </c>
       <c r="B214" s="0">
         <v>2</v>
@@ -4190,7 +6046,7 @@
     </row>
     <row r="215" x14ac:dyDescent="0.2">
       <c r="A215" s="0" t="s">
-        <v>245</v>
+        <v>861</v>
       </c>
       <c r="B215" s="0">
         <v>2</v>
@@ -4204,7 +6060,7 @@
     </row>
     <row r="216" x14ac:dyDescent="0.2">
       <c r="A216" s="0" t="s">
-        <v>246</v>
+        <v>862</v>
       </c>
       <c r="B216" s="0">
         <v>2</v>
@@ -4218,7 +6074,7 @@
     </row>
     <row r="217" x14ac:dyDescent="0.2">
       <c r="A217" s="0" t="s">
-        <v>246</v>
+        <v>862</v>
       </c>
       <c r="B217" s="0">
         <v>2</v>
@@ -4232,7 +6088,7 @@
     </row>
     <row r="218" x14ac:dyDescent="0.2">
       <c r="A218" s="0" t="s">
-        <v>246</v>
+        <v>862</v>
       </c>
       <c r="B218" s="0">
         <v>2</v>
@@ -4246,7 +6102,7 @@
     </row>
     <row r="219" x14ac:dyDescent="0.2">
       <c r="A219" s="0" t="s">
-        <v>247</v>
+        <v>863</v>
       </c>
       <c r="B219" s="0">
         <v>2</v>
@@ -4260,7 +6116,7 @@
     </row>
     <row r="220" x14ac:dyDescent="0.2">
       <c r="A220" s="0" t="s">
-        <v>248</v>
+        <v>864</v>
       </c>
       <c r="B220" s="0">
         <v>2</v>
@@ -4274,7 +6130,7 @@
     </row>
     <row r="221" x14ac:dyDescent="0.2">
       <c r="A221" s="0" t="s">
-        <v>248</v>
+        <v>864</v>
       </c>
       <c r="B221" s="0">
         <v>2</v>
@@ -4288,7 +6144,7 @@
     </row>
     <row r="222" x14ac:dyDescent="0.2">
       <c r="A222" s="0" t="s">
-        <v>249</v>
+        <v>865</v>
       </c>
       <c r="B222" s="0">
         <v>2</v>
@@ -4302,7 +6158,7 @@
     </row>
     <row r="223" x14ac:dyDescent="0.2">
       <c r="A223" s="0" t="s">
-        <v>250</v>
+        <v>866</v>
       </c>
       <c r="B223" s="0">
         <v>2</v>
@@ -4316,7 +6172,7 @@
     </row>
     <row r="224" x14ac:dyDescent="0.2">
       <c r="A224" s="0" t="s">
-        <v>250</v>
+        <v>866</v>
       </c>
       <c r="B224" s="0">
         <v>2</v>
@@ -4330,7 +6186,7 @@
     </row>
     <row r="225" x14ac:dyDescent="0.2">
       <c r="A225" s="0" t="s">
-        <v>251</v>
+        <v>867</v>
       </c>
       <c r="B225" s="0">
         <v>2</v>
@@ -4344,7 +6200,7 @@
     </row>
     <row r="226" x14ac:dyDescent="0.2">
       <c r="A226" s="0" t="s">
-        <v>252</v>
+        <v>868</v>
       </c>
       <c r="B226" s="0">
         <v>2</v>
@@ -4358,7 +6214,7 @@
     </row>
     <row r="227" x14ac:dyDescent="0.2">
       <c r="A227" s="0" t="s">
-        <v>252</v>
+        <v>868</v>
       </c>
       <c r="B227" s="0">
         <v>2</v>
@@ -4372,7 +6228,7 @@
     </row>
     <row r="228" x14ac:dyDescent="0.2">
       <c r="A228" s="0" t="s">
-        <v>253</v>
+        <v>869</v>
       </c>
       <c r="B228" s="0">
         <v>2</v>
@@ -4386,7 +6242,7 @@
     </row>
     <row r="229" x14ac:dyDescent="0.2">
       <c r="A229" s="0" t="s">
-        <v>253</v>
+        <v>869</v>
       </c>
       <c r="B229" s="0">
         <v>2</v>
@@ -4400,7 +6256,7 @@
     </row>
     <row r="230" x14ac:dyDescent="0.2">
       <c r="A230" s="0" t="s">
-        <v>253</v>
+        <v>869</v>
       </c>
       <c r="B230" s="0">
         <v>2</v>
@@ -4414,7 +6270,7 @@
     </row>
     <row r="231" x14ac:dyDescent="0.2">
       <c r="A231" s="0" t="s">
-        <v>253</v>
+        <v>869</v>
       </c>
       <c r="B231" s="0">
         <v>2</v>
@@ -4428,7 +6284,7 @@
     </row>
     <row r="232" x14ac:dyDescent="0.2">
       <c r="A232" s="0" t="s">
-        <v>254</v>
+        <v>870</v>
       </c>
       <c r="B232" s="0">
         <v>2</v>
@@ -4442,7 +6298,7 @@
     </row>
     <row r="233" x14ac:dyDescent="0.2">
       <c r="A233" s="0" t="s">
-        <v>255</v>
+        <v>871</v>
       </c>
       <c r="B233" s="0">
         <v>2</v>
@@ -4456,7 +6312,7 @@
     </row>
     <row r="234" x14ac:dyDescent="0.2">
       <c r="A234" s="0" t="s">
-        <v>256</v>
+        <v>872</v>
       </c>
       <c r="B234" s="0">
         <v>2</v>
@@ -4470,7 +6326,7 @@
     </row>
     <row r="235" x14ac:dyDescent="0.2">
       <c r="A235" s="0" t="s">
-        <v>256</v>
+        <v>872</v>
       </c>
       <c r="B235" s="0">
         <v>2</v>
@@ -4484,7 +6340,7 @@
     </row>
     <row r="236" x14ac:dyDescent="0.2">
       <c r="A236" s="0" t="s">
-        <v>256</v>
+        <v>872</v>
       </c>
       <c r="B236" s="0">
         <v>2</v>
@@ -4498,7 +6354,7 @@
     </row>
     <row r="237" x14ac:dyDescent="0.2">
       <c r="A237" s="0" t="s">
-        <v>257</v>
+        <v>873</v>
       </c>
       <c r="B237" s="0">
         <v>2</v>
@@ -4512,7 +6368,7 @@
     </row>
     <row r="238" x14ac:dyDescent="0.2">
       <c r="A238" s="0" t="s">
-        <v>258</v>
+        <v>874</v>
       </c>
       <c r="B238" s="0">
         <v>2</v>
@@ -4526,7 +6382,7 @@
     </row>
     <row r="239" x14ac:dyDescent="0.2">
       <c r="A239" s="0" t="s">
-        <v>258</v>
+        <v>874</v>
       </c>
       <c r="B239" s="0">
         <v>2</v>
@@ -4540,7 +6396,7 @@
     </row>
     <row r="240" x14ac:dyDescent="0.2">
       <c r="A240" s="0" t="s">
-        <v>258</v>
+        <v>874</v>
       </c>
       <c r="B240" s="0">
         <v>2</v>
@@ -4554,7 +6410,7 @@
     </row>
     <row r="241" x14ac:dyDescent="0.2">
       <c r="A241" s="0" t="s">
-        <v>258</v>
+        <v>874</v>
       </c>
       <c r="B241" s="0">
         <v>2</v>
@@ -4568,7 +6424,7 @@
     </row>
     <row r="242" x14ac:dyDescent="0.2">
       <c r="A242" s="0" t="s">
-        <v>259</v>
+        <v>875</v>
       </c>
       <c r="B242" s="0">
         <v>2</v>
@@ -4582,7 +6438,7 @@
     </row>
     <row r="243" x14ac:dyDescent="0.2">
       <c r="A243" s="0" t="s">
-        <v>260</v>
+        <v>876</v>
       </c>
       <c r="B243" s="0">
         <v>2</v>
@@ -4596,7 +6452,7 @@
     </row>
     <row r="244" x14ac:dyDescent="0.2">
       <c r="A244" s="0" t="s">
-        <v>260</v>
+        <v>876</v>
       </c>
       <c r="B244" s="0">
         <v>2</v>
@@ -4610,7 +6466,7 @@
     </row>
     <row r="245" x14ac:dyDescent="0.2">
       <c r="A245" s="0" t="s">
-        <v>260</v>
+        <v>876</v>
       </c>
       <c r="B245" s="0">
         <v>2</v>
@@ -4624,7 +6480,7 @@
     </row>
     <row r="246" x14ac:dyDescent="0.2">
       <c r="A246" s="0" t="s">
-        <v>260</v>
+        <v>876</v>
       </c>
       <c r="B246" s="0">
         <v>2</v>
@@ -4638,7 +6494,7 @@
     </row>
     <row r="247" x14ac:dyDescent="0.2">
       <c r="A247" s="0" t="s">
-        <v>260</v>
+        <v>876</v>
       </c>
       <c r="B247" s="0">
         <v>2</v>
@@ -4652,7 +6508,7 @@
     </row>
     <row r="248" x14ac:dyDescent="0.2">
       <c r="A248" s="0" t="s">
-        <v>260</v>
+        <v>876</v>
       </c>
       <c r="B248" s="0">
         <v>2</v>
@@ -4666,7 +6522,7 @@
     </row>
     <row r="249" x14ac:dyDescent="0.2">
       <c r="A249" s="0" t="s">
-        <v>260</v>
+        <v>876</v>
       </c>
       <c r="B249" s="0">
         <v>2</v>
@@ -4680,7 +6536,7 @@
     </row>
     <row r="250" x14ac:dyDescent="0.2">
       <c r="A250" s="0" t="s">
-        <v>260</v>
+        <v>876</v>
       </c>
       <c r="B250" s="0">
         <v>2</v>
@@ -4694,7 +6550,7 @@
     </row>
     <row r="251" x14ac:dyDescent="0.2">
       <c r="A251" s="0" t="s">
-        <v>261</v>
+        <v>877</v>
       </c>
       <c r="B251" s="0">
         <v>2</v>
@@ -4708,7 +6564,7 @@
     </row>
     <row r="252" x14ac:dyDescent="0.2">
       <c r="A252" s="0" t="s">
-        <v>261</v>
+        <v>877</v>
       </c>
       <c r="B252" s="0">
         <v>2</v>
@@ -4722,7 +6578,7 @@
     </row>
     <row r="253" x14ac:dyDescent="0.2">
       <c r="A253" s="0" t="s">
-        <v>262</v>
+        <v>878</v>
       </c>
       <c r="B253" s="0">
         <v>2</v>
@@ -4736,7 +6592,7 @@
     </row>
     <row r="254" x14ac:dyDescent="0.2">
       <c r="A254" s="0" t="s">
-        <v>262</v>
+        <v>878</v>
       </c>
       <c r="B254" s="0">
         <v>2</v>
@@ -4750,7 +6606,7 @@
     </row>
     <row r="255" x14ac:dyDescent="0.2">
       <c r="A255" s="0" t="s">
-        <v>263</v>
+        <v>879</v>
       </c>
       <c r="B255" s="0">
         <v>2</v>
@@ -4764,7 +6620,7 @@
     </row>
     <row r="256" x14ac:dyDescent="0.2">
       <c r="A256" s="0" t="s">
-        <v>264</v>
+        <v>880</v>
       </c>
       <c r="B256" s="0">
         <v>2</v>
@@ -4778,7 +6634,7 @@
     </row>
     <row r="257" x14ac:dyDescent="0.2">
       <c r="A257" s="0" t="s">
-        <v>264</v>
+        <v>880</v>
       </c>
       <c r="B257" s="0">
         <v>2</v>
@@ -4792,7 +6648,7 @@
     </row>
     <row r="258" x14ac:dyDescent="0.2">
       <c r="A258" s="0" t="s">
-        <v>265</v>
+        <v>881</v>
       </c>
       <c r="B258" s="0">
         <v>2</v>
@@ -4806,7 +6662,7 @@
     </row>
     <row r="259" x14ac:dyDescent="0.2">
       <c r="A259" s="0" t="s">
-        <v>265</v>
+        <v>881</v>
       </c>
       <c r="B259" s="0">
         <v>2</v>
@@ -4820,7 +6676,7 @@
     </row>
     <row r="260" x14ac:dyDescent="0.2">
       <c r="A260" s="0" t="s">
-        <v>265</v>
+        <v>881</v>
       </c>
       <c r="B260" s="0">
         <v>2</v>
@@ -4834,7 +6690,7 @@
     </row>
     <row r="261" x14ac:dyDescent="0.2">
       <c r="A261" s="0" t="s">
-        <v>265</v>
+        <v>881</v>
       </c>
       <c r="B261" s="0">
         <v>2</v>
@@ -4848,7 +6704,7 @@
     </row>
     <row r="262" x14ac:dyDescent="0.2">
       <c r="A262" s="0" t="s">
-        <v>265</v>
+        <v>881</v>
       </c>
       <c r="B262" s="0">
         <v>2</v>
@@ -4862,7 +6718,7 @@
     </row>
     <row r="263" x14ac:dyDescent="0.2">
       <c r="A263" s="0" t="s">
-        <v>265</v>
+        <v>881</v>
       </c>
       <c r="B263" s="0">
         <v>2</v>
@@ -4876,7 +6732,7 @@
     </row>
     <row r="264" x14ac:dyDescent="0.2">
       <c r="A264" s="0" t="s">
-        <v>265</v>
+        <v>881</v>
       </c>
       <c r="B264" s="0">
         <v>2</v>
@@ -4890,7 +6746,7 @@
     </row>
     <row r="265" x14ac:dyDescent="0.2">
       <c r="A265" s="0" t="s">
-        <v>265</v>
+        <v>881</v>
       </c>
       <c r="B265" s="0">
         <v>2</v>
@@ -4904,7 +6760,7 @@
     </row>
     <row r="266" x14ac:dyDescent="0.2">
       <c r="A266" s="0" t="s">
-        <v>266</v>
+        <v>882</v>
       </c>
       <c r="B266" s="0">
         <v>2</v>
@@ -4918,7 +6774,7 @@
     </row>
     <row r="267" x14ac:dyDescent="0.2">
       <c r="A267" s="0" t="s">
-        <v>266</v>
+        <v>882</v>
       </c>
       <c r="B267" s="0">
         <v>2</v>
@@ -4932,7 +6788,7 @@
     </row>
     <row r="268" x14ac:dyDescent="0.2">
       <c r="A268" s="0" t="s">
-        <v>267</v>
+        <v>883</v>
       </c>
       <c r="B268" s="0">
         <v>2</v>
@@ -4946,7 +6802,7 @@
     </row>
     <row r="269" x14ac:dyDescent="0.2">
       <c r="A269" s="0" t="s">
-        <v>267</v>
+        <v>883</v>
       </c>
       <c r="B269" s="0">
         <v>2</v>
@@ -4960,7 +6816,7 @@
     </row>
     <row r="270" x14ac:dyDescent="0.2">
       <c r="A270" s="0" t="s">
-        <v>268</v>
+        <v>884</v>
       </c>
       <c r="B270" s="0">
         <v>2</v>
@@ -4974,7 +6830,7 @@
     </row>
     <row r="271" x14ac:dyDescent="0.2">
       <c r="A271" s="0" t="s">
-        <v>268</v>
+        <v>884</v>
       </c>
       <c r="B271" s="0">
         <v>2</v>
@@ -4988,7 +6844,7 @@
     </row>
     <row r="272" x14ac:dyDescent="0.2">
       <c r="A272" s="0" t="s">
-        <v>268</v>
+        <v>884</v>
       </c>
       <c r="B272" s="0">
         <v>2</v>
@@ -5000,7 +6856,7 @@
     </row>
     <row r="273" x14ac:dyDescent="0.2">
       <c r="A273" s="0" t="s">
-        <v>268</v>
+        <v>884</v>
       </c>
       <c r="B273" s="0">
         <v>2</v>
@@ -5014,7 +6870,7 @@
     </row>
     <row r="274" x14ac:dyDescent="0.2">
       <c r="A274" s="0" t="s">
-        <v>268</v>
+        <v>884</v>
       </c>
       <c r="B274" s="0">
         <v>2</v>
@@ -5028,7 +6884,7 @@
     </row>
     <row r="275" x14ac:dyDescent="0.2">
       <c r="A275" s="0" t="s">
-        <v>268</v>
+        <v>884</v>
       </c>
       <c r="B275" s="0">
         <v>2</v>
@@ -5042,7 +6898,7 @@
     </row>
     <row r="276" x14ac:dyDescent="0.2">
       <c r="A276" s="0" t="s">
-        <v>268</v>
+        <v>884</v>
       </c>
       <c r="B276" s="0">
         <v>2</v>
@@ -5054,7 +6910,7 @@
     </row>
     <row r="277" x14ac:dyDescent="0.2">
       <c r="A277" s="0" t="s">
-        <v>268</v>
+        <v>884</v>
       </c>
       <c r="B277" s="0">
         <v>2</v>
@@ -5064,6 +6920,2046 @@
       </c>
       <c r="D277" s="0">
         <v>129.21122753620148</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B278" s="0">
+        <v>2</v>
+      </c>
+      <c r="C278" s="0">
+        <v>66</v>
+      </c>
+      <c r="D278" s="0">
+        <v>351.39471094310284</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B279" s="0">
+        <v>2</v>
+      </c>
+      <c r="C279" s="0">
+        <v>67</v>
+      </c>
+      <c r="D279" s="0">
+        <v>375.32008203491569</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B280" s="0">
+        <v>2</v>
+      </c>
+      <c r="C280" s="0">
+        <v>68</v>
+      </c>
+      <c r="D280" s="0">
+        <v>402.5044306628406</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B281" s="0">
+        <v>2</v>
+      </c>
+      <c r="C281" s="0">
+        <v>69</v>
+      </c>
+      <c r="D281" s="0">
+        <v>554.19965232908726</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B282" s="0">
+        <v>2</v>
+      </c>
+      <c r="C282" s="0">
+        <v>70</v>
+      </c>
+      <c r="D282" s="0">
+        <v>298.27903613448143</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="B283" s="0">
+        <v>2</v>
+      </c>
+      <c r="C283" s="0">
+        <v>71</v>
+      </c>
+      <c r="D283" s="0">
+        <v>391.23553121089935</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B284" s="0">
+        <v>2</v>
+      </c>
+      <c r="C284" s="0">
+        <v>72</v>
+      </c>
+      <c r="D284" s="0">
+        <v>341.28540185466409</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B285" s="0">
+        <v>2</v>
+      </c>
+      <c r="C285" s="0">
+        <v>73</v>
+      </c>
+      <c r="D285" s="0">
+        <v>422.11926562502049</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B286" s="0">
+        <v>2</v>
+      </c>
+      <c r="C286" s="0">
+        <v>74</v>
+      </c>
+      <c r="D286" s="0">
+        <v>446.39582519524265</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B287" s="0">
+        <v>2</v>
+      </c>
+      <c r="C287" s="0">
+        <v>75</v>
+      </c>
+      <c r="D287" s="0">
+        <v>319.76274999999441</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B288" s="0">
+        <v>2</v>
+      </c>
+      <c r="C288" s="0">
+        <v>76</v>
+      </c>
+      <c r="D288" s="0">
+        <v>235.03139550983906</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B289" s="0">
+        <v>2</v>
+      </c>
+      <c r="C289" s="0">
+        <v>77</v>
+      </c>
+      <c r="D289" s="0">
+        <v>375.38154687732458</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B290" s="0">
+        <v>2</v>
+      </c>
+      <c r="C290" s="0">
+        <v>78</v>
+      </c>
+      <c r="D290" s="0">
+        <v>332.21526953577995</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B291" s="0">
+        <v>2</v>
+      </c>
+      <c r="C291" s="0">
+        <v>79</v>
+      </c>
+      <c r="D291" s="0">
+        <v>377.15175097435713</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B292" s="0">
+        <v>2</v>
+      </c>
+      <c r="C292" s="0">
+        <v>80</v>
+      </c>
+      <c r="D292" s="0">
+        <v>443.40525732561946</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B293" s="0">
+        <v>2</v>
+      </c>
+      <c r="C293" s="0">
+        <v>81</v>
+      </c>
+      <c r="D293" s="0">
+        <v>364.01376953721046</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B294" s="0">
+        <v>2</v>
+      </c>
+      <c r="C294" s="0">
+        <v>82</v>
+      </c>
+      <c r="D294" s="0">
+        <v>342.43029882758856</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B295" s="0">
+        <v>2</v>
+      </c>
+      <c r="C295" s="0">
+        <v>83</v>
+      </c>
+      <c r="D295" s="0">
+        <v>385.1926953047514</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B296" s="0">
+        <v>2</v>
+      </c>
+      <c r="C296" s="0">
+        <v>84</v>
+      </c>
+      <c r="D296" s="0">
+        <v>399.85692382231355</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B297" s="0">
+        <v>2</v>
+      </c>
+      <c r="C297" s="0">
+        <v>85</v>
+      </c>
+      <c r="D297" s="0">
+        <v>284.11888867616653</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B298" s="0">
+        <v>2</v>
+      </c>
+      <c r="C298" s="0">
+        <v>86</v>
+      </c>
+      <c r="D298" s="0">
+        <v>291.80962108075619</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B299" s="0">
+        <v>2</v>
+      </c>
+      <c r="C299" s="0">
+        <v>87</v>
+      </c>
+      <c r="D299" s="0">
+        <v>357.51367578282952</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B300" s="0">
+        <v>2</v>
+      </c>
+      <c r="C300" s="0">
+        <v>88</v>
+      </c>
+      <c r="D300" s="0">
+        <v>299.53030127100646</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B301" s="0">
+        <v>2</v>
+      </c>
+      <c r="C301" s="0">
+        <v>89</v>
+      </c>
+      <c r="D301" s="0">
+        <v>281.50908202677965</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B302" s="0">
+        <v>2</v>
+      </c>
+      <c r="C302" s="0">
+        <v>90</v>
+      </c>
+      <c r="D302" s="0">
+        <v>302.88714649528265</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B303" s="0">
+        <v>2</v>
+      </c>
+      <c r="C303" s="0">
+        <v>91</v>
+      </c>
+      <c r="D303" s="0">
+        <v>286.34672021493316</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B304" s="0">
+        <v>2</v>
+      </c>
+      <c r="C304" s="0">
+        <v>92</v>
+      </c>
+      <c r="D304" s="0">
+        <v>293.12171679735184</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B305" s="0">
+        <v>2</v>
+      </c>
+      <c r="C305" s="0">
+        <v>93</v>
+      </c>
+      <c r="D305" s="0">
+        <v>288.81841357052326</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B306" s="0">
+        <v>2</v>
+      </c>
+      <c r="C306" s="0">
+        <v>94</v>
+      </c>
+      <c r="D306" s="0">
+        <v>292.66368944942951</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B307" s="0">
+        <v>2</v>
+      </c>
+      <c r="C307" s="0">
+        <v>95</v>
+      </c>
+      <c r="D307" s="0">
+        <v>271.75133154168725</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B308" s="0">
+        <v>2</v>
+      </c>
+      <c r="C308" s="0">
+        <v>96</v>
+      </c>
+      <c r="D308" s="0">
+        <v>293.88411328196526</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B309" s="0">
+        <v>2</v>
+      </c>
+      <c r="C309" s="0">
+        <v>97</v>
+      </c>
+      <c r="D309" s="0">
+        <v>288.04015430063009</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B310" s="0">
+        <v>2</v>
+      </c>
+      <c r="C310" s="0">
+        <v>98</v>
+      </c>
+      <c r="D310" s="0">
+        <v>285.88093798607588</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B311" s="0">
+        <v>2</v>
+      </c>
+      <c r="C311" s="0">
+        <v>99</v>
+      </c>
+      <c r="D311" s="0">
+        <v>313.1107265651226</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B312" s="0">
+        <v>2</v>
+      </c>
+      <c r="C312" s="0">
+        <v>100</v>
+      </c>
+      <c r="D312" s="0">
+        <v>189.6971572265029</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="B313" s="0">
+        <v>2</v>
+      </c>
+      <c r="C313" s="0">
+        <v>101</v>
+      </c>
+      <c r="D313" s="0">
+        <v>446.67842627316713</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="B314" s="0">
+        <v>2</v>
+      </c>
+      <c r="C314" s="0">
+        <v>102</v>
+      </c>
+      <c r="D314" s="0">
+        <v>434.64704882353544</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B315" s="0">
+        <v>2</v>
+      </c>
+      <c r="C315" s="0">
+        <v>103</v>
+      </c>
+      <c r="D315" s="0">
+        <v>250.74045508354902</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B316" s="0">
+        <v>2</v>
+      </c>
+      <c r="C316" s="0">
+        <v>104</v>
+      </c>
+      <c r="D316" s="0">
+        <v>280.70062500238419</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B317" s="0">
+        <v>2</v>
+      </c>
+      <c r="C317" s="0">
+        <v>105</v>
+      </c>
+      <c r="D317" s="0">
+        <v>267.12103320658207</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B318" s="0">
+        <v>2</v>
+      </c>
+      <c r="C318" s="0">
+        <v>106</v>
+      </c>
+      <c r="D318" s="0">
+        <v>368.95712305605412</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B319" s="0">
+        <v>2</v>
+      </c>
+      <c r="C319" s="0">
+        <v>107</v>
+      </c>
+      <c r="D319" s="0">
+        <v>272.70498535037041</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="B320" s="0">
+        <v>2</v>
+      </c>
+      <c r="C320" s="0">
+        <v>108</v>
+      </c>
+      <c r="D320" s="0">
+        <v>250.97694432735443</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="B321" s="0">
+        <v>2</v>
+      </c>
+      <c r="C321" s="0">
+        <v>109</v>
+      </c>
+      <c r="D321" s="0">
+        <v>296.7605981528759</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="B322" s="0">
+        <v>2</v>
+      </c>
+      <c r="C322" s="0">
+        <v>110</v>
+      </c>
+      <c r="D322" s="0">
+        <v>306.48840820789337</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="B323" s="0">
+        <v>2</v>
+      </c>
+      <c r="C323" s="0">
+        <v>111</v>
+      </c>
+      <c r="D323" s="0">
+        <v>264.95331245660782</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B324" s="0">
+        <v>2</v>
+      </c>
+      <c r="C324" s="0">
+        <v>112</v>
+      </c>
+      <c r="D324" s="0">
+        <v>283.3787827193737</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B325" s="0">
+        <v>2</v>
+      </c>
+      <c r="C325" s="0">
+        <v>113</v>
+      </c>
+      <c r="D325" s="0">
+        <v>218.18542090058327</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B326" s="0">
+        <v>2</v>
+      </c>
+      <c r="C326" s="0">
+        <v>114</v>
+      </c>
+      <c r="D326" s="0">
+        <v>275.64996825158596</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B327" s="0">
+        <v>2</v>
+      </c>
+      <c r="C327" s="0">
+        <v>115</v>
+      </c>
+      <c r="D327" s="0">
+        <v>329.45280274748802</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B328" s="0">
+        <v>2</v>
+      </c>
+      <c r="C328" s="0">
+        <v>116</v>
+      </c>
+      <c r="D328" s="0">
+        <v>222.07634130120277</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B329" s="0">
+        <v>2</v>
+      </c>
+      <c r="C329" s="0">
+        <v>117</v>
+      </c>
+      <c r="D329" s="0">
+        <v>318.38975587487221</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="B330" s="0">
+        <v>2</v>
+      </c>
+      <c r="C330" s="0">
+        <v>118</v>
+      </c>
+      <c r="D330" s="0">
+        <v>302.94796289503574</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="B331" s="0">
+        <v>2</v>
+      </c>
+      <c r="C331" s="0">
+        <v>119</v>
+      </c>
+      <c r="D331" s="0">
+        <v>296.40213184058666</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="B332" s="0">
+        <v>2</v>
+      </c>
+      <c r="C332" s="0">
+        <v>120</v>
+      </c>
+      <c r="D332" s="0">
+        <v>303.22278905659914</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="B333" s="0">
+        <v>2</v>
+      </c>
+      <c r="C333" s="0">
+        <v>121</v>
+      </c>
+      <c r="D333" s="0">
+        <v>344.93231298774481</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="B334" s="0">
+        <v>2</v>
+      </c>
+      <c r="C334" s="0">
+        <v>122</v>
+      </c>
+      <c r="D334" s="0">
+        <v>336.6698085963726</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B335" s="0">
+        <v>2</v>
+      </c>
+      <c r="C335" s="0">
+        <v>123</v>
+      </c>
+      <c r="D335" s="0">
+        <v>412.59811282157898</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="B336" s="0">
+        <v>2</v>
+      </c>
+      <c r="C336" s="0">
+        <v>124</v>
+      </c>
+      <c r="D336" s="0">
+        <v>273.08657321333885</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="B337" s="0">
+        <v>2</v>
+      </c>
+      <c r="C337" s="0">
+        <v>125</v>
+      </c>
+      <c r="D337" s="0">
+        <v>244.44544532895088</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="B338" s="0">
+        <v>2</v>
+      </c>
+      <c r="C338" s="0">
+        <v>126</v>
+      </c>
+      <c r="D338" s="0">
+        <v>296.02024614810944</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="B339" s="0">
+        <v>2</v>
+      </c>
+      <c r="C339" s="0">
+        <v>127</v>
+      </c>
+      <c r="D339" s="0">
+        <v>448.91342478990555</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="B340" s="0">
+        <v>2</v>
+      </c>
+      <c r="C340" s="0">
+        <v>128</v>
+      </c>
+      <c r="D340" s="0">
+        <v>384.81926416046917</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B341" s="0">
+        <v>2</v>
+      </c>
+      <c r="C341" s="0">
+        <v>129</v>
+      </c>
+      <c r="D341" s="0">
+        <v>228.36283203214407</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B342" s="0">
+        <v>2</v>
+      </c>
+      <c r="C342" s="0">
+        <v>130</v>
+      </c>
+      <c r="D342" s="0">
+        <v>179.62666992843151</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="B343" s="0">
+        <v>2</v>
+      </c>
+      <c r="C343" s="0">
+        <v>131</v>
+      </c>
+      <c r="D343" s="0">
+        <v>298.88896386697888</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="B344" s="0">
+        <v>2</v>
+      </c>
+      <c r="C344" s="0">
+        <v>132</v>
+      </c>
+      <c r="D344" s="0">
+        <v>554.55780468694866</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="B345" s="0">
+        <v>2</v>
+      </c>
+      <c r="C345" s="0">
+        <v>133</v>
+      </c>
+      <c r="D345" s="0">
+        <v>254.11196240410209</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="B346" s="0">
+        <v>2</v>
+      </c>
+      <c r="C346" s="0">
+        <v>134</v>
+      </c>
+      <c r="D346" s="0">
+        <v>262.86321386694908</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="B347" s="0">
+        <v>2</v>
+      </c>
+      <c r="C347" s="0">
+        <v>135</v>
+      </c>
+      <c r="D347" s="0">
+        <v>187.01911035180092</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="B348" s="0">
+        <v>2</v>
+      </c>
+      <c r="C348" s="0">
+        <v>136</v>
+      </c>
+      <c r="D348" s="0">
+        <v>250.9765625</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="B349" s="0">
+        <v>2</v>
+      </c>
+      <c r="C349" s="0">
+        <v>137</v>
+      </c>
+      <c r="D349" s="0">
+        <v>284.42408202961087</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="B350" s="0">
+        <v>2</v>
+      </c>
+      <c r="C350" s="0">
+        <v>138</v>
+      </c>
+      <c r="D350" s="0">
+        <v>229.01128320768476</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B351" s="0">
+        <v>2</v>
+      </c>
+      <c r="C351" s="0">
+        <v>139</v>
+      </c>
+      <c r="D351" s="0">
+        <v>279.99912695214152</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B352" s="0">
+        <v>2</v>
+      </c>
+      <c r="C352" s="0">
+        <v>140</v>
+      </c>
+      <c r="D352" s="0">
+        <v>224.63996484875679</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B353" s="0">
+        <v>2</v>
+      </c>
+      <c r="C353" s="0">
+        <v>141</v>
+      </c>
+      <c r="D353" s="0">
+        <v>361.4886791985482</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B354" s="0">
+        <v>2</v>
+      </c>
+      <c r="C354" s="0">
+        <v>142</v>
+      </c>
+      <c r="D354" s="0">
+        <v>199.61574511602521</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B355" s="0">
+        <v>2</v>
+      </c>
+      <c r="C355" s="0">
+        <v>143</v>
+      </c>
+      <c r="D355" s="0">
+        <v>222.67938867211342</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B356" s="0">
+        <v>2</v>
+      </c>
+      <c r="C356" s="0">
+        <v>144</v>
+      </c>
+      <c r="D356" s="0">
+        <v>182.70818359404802</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B357" s="0">
+        <v>2</v>
+      </c>
+      <c r="C357" s="0">
+        <v>145</v>
+      </c>
+      <c r="D357" s="0">
+        <v>212.75368359312415</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B358" s="0">
+        <v>2</v>
+      </c>
+      <c r="C358" s="0">
+        <v>146</v>
+      </c>
+      <c r="D358" s="0">
+        <v>258.51445703208447</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B359" s="0">
+        <v>2</v>
+      </c>
+      <c r="C359" s="0">
+        <v>147</v>
+      </c>
+      <c r="D359" s="0">
+        <v>201.4314101561904</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B360" s="0">
+        <v>2</v>
+      </c>
+      <c r="C360" s="0">
+        <v>148</v>
+      </c>
+      <c r="D360" s="0">
+        <v>218.15505859255791</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B361" s="0">
+        <v>2</v>
+      </c>
+      <c r="C361" s="0">
+        <v>149</v>
+      </c>
+      <c r="D361" s="0">
+        <v>395.48493066243827</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B362" s="0">
+        <v>2</v>
+      </c>
+      <c r="C362" s="0">
+        <v>150</v>
+      </c>
+      <c r="D362" s="0">
+        <v>146.46873241662979</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B363" s="0">
+        <v>2</v>
+      </c>
+      <c r="C363" s="0">
+        <v>151</v>
+      </c>
+      <c r="D363" s="0">
+        <v>199.15746679529548</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B364" s="0">
+        <v>2</v>
+      </c>
+      <c r="C364" s="0">
+        <v>152</v>
+      </c>
+      <c r="D364" s="0">
+        <v>352.20346288755536</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B365" s="0">
+        <v>2</v>
+      </c>
+      <c r="C365" s="0">
+        <v>153</v>
+      </c>
+      <c r="D365" s="0">
+        <v>202.80447461083531</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B366" s="0">
+        <v>2</v>
+      </c>
+      <c r="C366" s="0">
+        <v>154</v>
+      </c>
+      <c r="D366" s="0">
+        <v>175.10944140702486</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="B367" s="0">
+        <v>2</v>
+      </c>
+      <c r="C367" s="0">
+        <v>155</v>
+      </c>
+      <c r="D367" s="0">
+        <v>348.00697848200798</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B368" s="0">
+        <v>2</v>
+      </c>
+      <c r="C368" s="0">
+        <v>156</v>
+      </c>
+      <c r="D368" s="0">
+        <v>223.40432518720627</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B369" s="0">
+        <v>2</v>
+      </c>
+      <c r="C369" s="0">
+        <v>157</v>
+      </c>
+      <c r="D369" s="0">
+        <v>195.11427736282349</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="B370" s="0">
+        <v>2</v>
+      </c>
+      <c r="C370" s="0">
+        <v>158</v>
+      </c>
+      <c r="D370" s="0">
+        <v>255.89032804965973</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B371" s="0">
+        <v>2</v>
+      </c>
+      <c r="C371" s="0">
+        <v>159</v>
+      </c>
+      <c r="D371" s="0">
+        <v>213.21855616569519</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B372" s="0">
+        <v>2</v>
+      </c>
+      <c r="C372" s="0">
+        <v>160</v>
+      </c>
+      <c r="D372" s="0">
+        <v>306.56464546918869</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B373" s="0">
+        <v>2</v>
+      </c>
+      <c r="C373" s="0">
+        <v>161</v>
+      </c>
+      <c r="D373" s="0">
+        <v>178.19201564788818</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B374" s="0">
+        <v>2</v>
+      </c>
+      <c r="C374" s="0">
+        <v>162</v>
+      </c>
+      <c r="D374" s="0">
+        <v>263.36663281265646</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B375" s="0">
+        <v>2</v>
+      </c>
+      <c r="C375" s="0">
+        <v>163</v>
+      </c>
+      <c r="D375" s="0">
+        <v>390.57171679707244</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B376" s="0">
+        <v>2</v>
+      </c>
+      <c r="C376" s="0">
+        <v>164</v>
+      </c>
+      <c r="D376" s="0">
+        <v>343.09399169916287</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B377" s="0">
+        <v>2</v>
+      </c>
+      <c r="C377" s="0">
+        <v>165</v>
+      </c>
+      <c r="D377" s="0">
+        <v>262.02470508217812</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B378" s="0">
+        <v>2</v>
+      </c>
+      <c r="C378" s="0">
+        <v>166</v>
+      </c>
+      <c r="D378" s="0">
+        <v>213.16560742259026</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B379" s="0">
+        <v>2</v>
+      </c>
+      <c r="C379" s="0">
+        <v>167</v>
+      </c>
+      <c r="D379" s="0">
+        <v>257.61426757276058</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="B380" s="0">
+        <v>2</v>
+      </c>
+      <c r="C380" s="0">
+        <v>168</v>
+      </c>
+      <c r="D380" s="0">
+        <v>561.27922070026398</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="B381" s="0">
+        <v>2</v>
+      </c>
+      <c r="C381" s="0">
+        <v>169</v>
+      </c>
+      <c r="D381" s="0">
+        <v>267.21150977909565</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="B382" s="0">
+        <v>2</v>
+      </c>
+      <c r="C382" s="0">
+        <v>170</v>
+      </c>
+      <c r="D382" s="0">
+        <v>453.6975649446249</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="B383" s="0">
+        <v>2</v>
+      </c>
+      <c r="C383" s="0">
+        <v>171</v>
+      </c>
+      <c r="D383" s="0">
+        <v>450.88247656822205</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="B384" s="0">
+        <v>2</v>
+      </c>
+      <c r="C384" s="0">
+        <v>172</v>
+      </c>
+      <c r="D384" s="0">
+        <v>424.22533251717687</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="B385" s="0">
+        <v>2</v>
+      </c>
+      <c r="C385" s="0">
+        <v>173</v>
+      </c>
+      <c r="D385" s="0">
+        <v>418.51840088143945</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B386" s="0">
+        <v>2</v>
+      </c>
+      <c r="C386" s="0">
+        <v>174</v>
+      </c>
+      <c r="D386" s="0">
+        <v>351.80695606023073</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B387" s="0">
+        <v>2</v>
+      </c>
+      <c r="C387" s="0">
+        <v>175</v>
+      </c>
+      <c r="D387" s="0">
+        <v>335.75442187488079</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B388" s="0">
+        <v>2</v>
+      </c>
+      <c r="C388" s="0">
+        <v>176</v>
+      </c>
+      <c r="D388" s="0">
+        <v>459.06042968481779</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B389" s="0">
+        <v>2</v>
+      </c>
+      <c r="C389" s="0">
+        <v>177</v>
+      </c>
+      <c r="D389" s="0">
+        <v>330.87153369188309</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B390" s="0">
+        <v>2</v>
+      </c>
+      <c r="C390" s="0">
+        <v>178</v>
+      </c>
+      <c r="D390" s="0">
+        <v>317.19994824379683</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B391" s="0">
+        <v>2</v>
+      </c>
+      <c r="C391" s="0">
+        <v>179</v>
+      </c>
+      <c r="D391" s="0">
+        <v>295.13608203083277</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B392" s="0">
+        <v>2</v>
+      </c>
+      <c r="C392" s="0">
+        <v>180</v>
+      </c>
+      <c r="D392" s="0">
+        <v>644.84395214542747</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B393" s="0">
+        <v>2</v>
+      </c>
+      <c r="C393" s="0">
+        <v>181</v>
+      </c>
+      <c r="D393" s="0">
+        <v>361.08460547029972</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B394" s="0">
+        <v>2</v>
+      </c>
+      <c r="C394" s="0">
+        <v>182</v>
+      </c>
+      <c r="D394" s="0">
+        <v>289.36807423830032</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B395" s="0">
+        <v>2</v>
+      </c>
+      <c r="C395" s="0">
+        <v>183</v>
+      </c>
+      <c r="D395" s="0">
+        <v>306.97678709030151</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B396" s="0">
+        <v>2</v>
+      </c>
+      <c r="C396" s="0">
+        <v>184</v>
+      </c>
+      <c r="D396" s="0">
+        <v>334.24407763779163</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B397" s="0">
+        <v>2</v>
+      </c>
+      <c r="C397" s="0">
+        <v>185</v>
+      </c>
+      <c r="D397" s="0">
+        <v>354.21830663084984</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="B398" s="0">
+        <v>2</v>
+      </c>
+      <c r="C398" s="0">
+        <v>186</v>
+      </c>
+      <c r="D398" s="0">
+        <v>357.49817382544279</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="B399" s="0">
+        <v>2</v>
+      </c>
+      <c r="C399" s="0">
+        <v>187</v>
+      </c>
+      <c r="D399" s="0">
+        <v>311.8896040096879</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="B400" s="0">
+        <v>2</v>
+      </c>
+      <c r="C400" s="0">
+        <v>188</v>
+      </c>
+      <c r="D400" s="0">
+        <v>303.09311718866229</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="B401" s="0">
+        <v>2</v>
+      </c>
+      <c r="C401" s="0">
+        <v>189</v>
+      </c>
+      <c r="D401" s="0">
+        <v>346.69505566358566</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B402" s="0">
+        <v>2</v>
+      </c>
+      <c r="C402" s="0">
+        <v>190</v>
+      </c>
+      <c r="D402" s="0">
+        <v>299.16369433701038</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="B403" s="0">
+        <v>2</v>
+      </c>
+      <c r="C403" s="0">
+        <v>191</v>
+      </c>
+      <c r="D403" s="0">
+        <v>307.91478515788913</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B404" s="0">
+        <v>2</v>
+      </c>
+      <c r="C404" s="0">
+        <v>192</v>
+      </c>
+      <c r="D404" s="0">
+        <v>313.29423535615206</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="B405" s="0">
+        <v>2</v>
+      </c>
+      <c r="C405" s="0">
+        <v>193</v>
+      </c>
+      <c r="D405" s="0">
+        <v>254.37924609333277</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="B406" s="0">
+        <v>2</v>
+      </c>
+      <c r="C406" s="0">
+        <v>194</v>
+      </c>
+      <c r="D406" s="0">
+        <v>266.73908007517457</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="B407" s="0">
+        <v>2</v>
+      </c>
+      <c r="C407" s="0">
+        <v>195</v>
+      </c>
+      <c r="D407" s="0">
+        <v>323.30327148735523</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B408" s="0">
+        <v>2</v>
+      </c>
+      <c r="C408" s="0">
+        <v>196</v>
+      </c>
+      <c r="D408" s="0">
+        <v>215.30137108266354</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B409" s="0">
+        <v>2</v>
+      </c>
+      <c r="C409" s="0">
+        <v>197</v>
+      </c>
+      <c r="D409" s="0">
+        <v>276.06197216361761</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B410" s="0">
+        <v>2</v>
+      </c>
+      <c r="C410" s="0">
+        <v>198</v>
+      </c>
+      <c r="D410" s="0">
+        <v>160.12541015446186</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B411" s="0">
+        <v>2</v>
+      </c>
+      <c r="C411" s="0">
+        <v>199</v>
+      </c>
+      <c r="D411" s="0"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B412" s="0">
+        <v>2</v>
+      </c>
+      <c r="C412" s="0">
+        <v>200</v>
+      </c>
+      <c r="D412" s="0">
+        <v>313.82765233889222</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B413" s="0">
+        <v>2</v>
+      </c>
+      <c r="C413" s="0">
+        <v>201</v>
+      </c>
+      <c r="D413" s="0">
+        <v>210.49466893821955</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B414" s="0">
+        <v>2</v>
+      </c>
+      <c r="C414" s="0">
+        <v>202</v>
+      </c>
+      <c r="D414" s="0">
+        <v>174.40881834924221</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B415" s="0">
+        <v>2</v>
+      </c>
+      <c r="C415" s="0">
+        <v>203</v>
+      </c>
+      <c r="D415" s="0">
+        <v>147.15569921582937</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B416" s="0">
+        <v>2</v>
+      </c>
+      <c r="C416" s="0">
+        <v>204</v>
+      </c>
+      <c r="D416" s="0"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B417" s="0">
+        <v>2</v>
+      </c>
+      <c r="C417" s="0">
+        <v>205</v>
+      </c>
+      <c r="D417" s="0">
+        <v>169.95277734100819</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B418" s="0">
+        <v>2</v>
+      </c>
+      <c r="C418" s="0">
+        <v>206</v>
+      </c>
+      <c r="D418" s="0">
+        <v>156.02079296857119</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B419" s="0">
+        <v>2</v>
+      </c>
+      <c r="C419" s="0">
+        <v>207</v>
+      </c>
+      <c r="D419" s="0">
+        <v>172.69893848150969</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="B420" s="0">
+        <v>2</v>
+      </c>
+      <c r="C420" s="0">
+        <v>208</v>
+      </c>
+      <c r="D420" s="0">
+        <v>375.45771289616823</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="B421" s="0">
+        <v>2</v>
+      </c>
+      <c r="C421" s="0">
+        <v>209</v>
+      </c>
+      <c r="D421" s="0">
+        <v>332.15268748998642</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="B422" s="0">
+        <v>2</v>
+      </c>
+      <c r="C422" s="0">
+        <v>210</v>
+      </c>
+      <c r="D422" s="0">
+        <v>269.98906640708447</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B423" s="0">
+        <v>2</v>
+      </c>
+      <c r="C423" s="0">
+        <v>211</v>
+      </c>
+      <c r="D423" s="0">
+        <v>261.94007910043001</v>
       </c>
     </row>
   </sheetData>
